--- a/translate.xlsx
+++ b/translate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1264">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -331,25 +331,364 @@
     <t xml:space="preserve">الرئيسيه</t>
   </si>
   <si>
-    <t xml:space="preserve">Home</t>
+    <t xml:space="preserve">invalid_num_or_already_exist </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invalid number or it has already exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقم غير صحيح او موجود بالفعل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot_update_user_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cant update data, try later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يمكن تحديث البيانات ، حاول في وقت لاحق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can_not_updated_password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant update password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">غير قادر على تحديث كلمة المرور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go_To_home_page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go To Home Page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اذهب إلى الصفحة الرئيسية</t>
+  </si>
+  <si>
+    <t xml:space="preserve">old_password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كلمة المرور القديمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGE_PASSWORD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHANGE PASSWORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغيير كلمة المرور</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يعدل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myarea_size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم المنطقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update_size </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update Size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حجم التحديث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_histroy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order History </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ الطلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aboutus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">About Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معلومات عنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contactus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اتصل بنا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">change_language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">تغيير اللغة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log Out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تسجيل خروج</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error in fetching data , try later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">خطأ في جلب البيانات ، حاول لاحقًا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">less_size_100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min Size is 100 meter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">الحد الأدنى للحجم 100 متر</t>
   </si>
   <si>
     <t xml:space="preserve">ensure_internet_is_working </t>
   </si>
   <si>
-    <t xml:space="preserve">Loading Error , please try later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">تحميل خاطئ  منفضلك جرب لاحقا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invalid_num_or_already_exist </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invalid number or it has already exist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">رقم غير صحيح او موجود بالفعل</t>
+    <t xml:space="preserve">Ensure that network is well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تأكد من أن الشبكة جيدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نعم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not_show_again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dont show Again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا تظهر مرة أخرى</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove_from_cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove from Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إزالة من الطلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add_tocart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اضافة للأمر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_removed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item has been removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمت إزالة العنصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_cannot_del </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item cannot deleted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يمكن حذف العنصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">آسف</t>
+  </si>
+  <si>
+    <t xml:space="preserve">item_added </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item has been Added</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تمت إضافة العنصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">please_try_again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please tray again later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">من فضلك صينية مرة أخرى في وقت لاحق</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list_not_updated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">your list cannot be fetched , please try later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يمكن جلب قائمتك ، يرجى المحاولة لاحقًا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canot_upload_subcategory </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cannot Upload all sub category data, try later</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا يمكن تحميل كافة بيانات الفئة الفرعية ، حاول لاحقًا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reEnter_New_password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renter new Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">استأجر كلمة مرور جديدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reuest_no </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رقم الطلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">تاريخ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_price </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">السعر الكلي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order_list </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لائحة الطلبات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request_summary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Summary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">طلب ملخص</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_items_cost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Items Cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إجمالي تكلفة العناصر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enter_promo_code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Promo Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">إدخال الرمز الترويجي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code_check </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">التحقق من الشفرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">يقدم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">request_success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your request has been Successfully Sent we will contact you shortly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">طلبك تم بنجاح وسوف يتواصل معك أحد فريق العمل </t>
+  </si>
+  <si>
+    <t xml:space="preserve">congr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONGRATULATION..! </t>
   </si>
   <si>
     <t xml:space="preserve">Afghan</t>
@@ -3582,7 +3921,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="10"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
@@ -3640,13 +3995,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.26"/>
   </cols>
@@ -4419,59 +4774,898 @@
         <v>'Home':'الرئيسيه',</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="E36" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B36)&amp;"':"&amp;"'"&amp;TRIM(C36)&amp;"',"</f>
-        <v>'ensure_internet_is_working':'Loading Error , please try later',</v>
+        <v>'invalid_num_or_already_exist':'Invalid number or it has already exist',</v>
       </c>
       <c r="F36" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B36)&amp;"':"&amp;"'"&amp;TRIM(D36)&amp;"',"</f>
-        <v>'ensure_internet_is_working':'تحميل خاطئ منفضلك جرب لاحقا',</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>'invalid_num_or_already_exist':'رقم غير صحيح او موجود بالفعل',</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>107</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="E37" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B37)&amp;"':"&amp;"'"&amp;TRIM(C37)&amp;"',"</f>
-        <v>'invalid_num_or_already_exist':'Invalid number or it has already exist',</v>
+        <v>'cannot_update_user_data':'Cant update data, try later',</v>
       </c>
       <c r="F37" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B37)&amp;"':"&amp;"'"&amp;TRIM(D37)&amp;"',"</f>
-        <v>'invalid_num_or_already_exist':'رقم غير صحيح او موجود بالفعل',</v>
+        <v>'cannot_update_user_data':'لا يمكن تحديث البيانات ، حاول في وقت لاحق',</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B38)&amp;"':"&amp;"'"&amp;TRIM(C38)&amp;"',"</f>
+        <v>'can_not_updated_password':'cant update password',</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B38)&amp;"':"&amp;"'"&amp;TRIM(D38)&amp;"',"</f>
+        <v>'can_not_updated_password':'غير قادر على تحديث كلمة المرور',</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B39)&amp;"':"&amp;"'"&amp;TRIM(C39)&amp;"',"</f>
+        <v>'Go_To_home_page':'Go To Home Page',</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B39)&amp;"':"&amp;"'"&amp;TRIM(D39)&amp;"',"</f>
+        <v>'Go_To_home_page':'اذهب إلى الصفحة الرئيسية',</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B40)&amp;"':"&amp;"'"&amp;TRIM(C40)&amp;"',"</f>
+        <v>'old_password':'Old Password',</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B40)&amp;"':"&amp;"'"&amp;TRIM(D40)&amp;"',"</f>
+        <v>'old_password':'كلمة المرور القديمة',</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B41)&amp;"':"&amp;"'"&amp;TRIM(C41)&amp;"',"</f>
+        <v>'CHANGE_PASSWORD':'CHANGE PASSWORD',</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B41)&amp;"':"&amp;"'"&amp;TRIM(D41)&amp;"',"</f>
+        <v>'CHANGE_PASSWORD':'تغيير كلمة المرور',</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B42)&amp;"':"&amp;"'"&amp;TRIM(C42)&amp;"',"</f>
+        <v>'edit':'Edit',</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B42)&amp;"':"&amp;"'"&amp;TRIM(D42)&amp;"',"</f>
+        <v>'edit':'يعدل',</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B43)&amp;"':"&amp;"'"&amp;TRIM(C43)&amp;"',"</f>
+        <v>'myarea_size':'Area Size',</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B43)&amp;"':"&amp;"'"&amp;TRIM(D43)&amp;"',"</f>
+        <v>'myarea_size':'حجم المنطقة',</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B44)&amp;"':"&amp;"'"&amp;TRIM(C44)&amp;"',"</f>
+        <v>'update_size':'Update Size',</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B44)&amp;"':"&amp;"'"&amp;TRIM(D44)&amp;"',"</f>
+        <v>'update_size':'حجم التحديث',</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B45)&amp;"':"&amp;"'"&amp;TRIM(C45)&amp;"',"</f>
+        <v>'order_histroy':'Order History',</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B45)&amp;"':"&amp;"'"&amp;TRIM(D45)&amp;"',"</f>
+        <v>'order_histroy':'تاريخ الطلب',</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B46)&amp;"':"&amp;"'"&amp;TRIM(C46)&amp;"',"</f>
+        <v>'aboutus':'About Us',</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B46)&amp;"':"&amp;"'"&amp;TRIM(D46)&amp;"',"</f>
+        <v>'aboutus':'معلومات عنا',</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B47)&amp;"':"&amp;"'"&amp;TRIM(C47)&amp;"',"</f>
+        <v>'contactus':'Contact Us',</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B47)&amp;"':"&amp;"'"&amp;TRIM(D47)&amp;"',"</f>
+        <v>'contactus':'اتصل بنا',</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B48)&amp;"':"&amp;"'"&amp;TRIM(C48)&amp;"',"</f>
+        <v>'change_language':'Change Language',</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B48)&amp;"':"&amp;"'"&amp;TRIM(D48)&amp;"',"</f>
+        <v>'change_language':'تغيير اللغة',</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B49)&amp;"':"&amp;"'"&amp;TRIM(C49)&amp;"',"</f>
+        <v>'logout':'Log Out',</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B49)&amp;"':"&amp;"'"&amp;TRIM(D49)&amp;"',"</f>
+        <v>'logout':'تسجيل خروج',</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B50)&amp;"':"&amp;"'"&amp;TRIM(C50)&amp;"',"</f>
+        <v>'error_data':'Error in fetching data , try later',</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B50)&amp;"':"&amp;"'"&amp;TRIM(D50)&amp;"',"</f>
+        <v>'error_data':'خطأ في جلب البيانات ، حاول لاحقًا',</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B51)&amp;"':"&amp;"'"&amp;TRIM(C51)&amp;"',"</f>
+        <v>'less_size_100':'Min Size is 100 meter',</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B51)&amp;"':"&amp;"'"&amp;TRIM(D51)&amp;"',"</f>
+        <v>'less_size_100':'الحد الأدنى للحجم 100 متر',</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B52)&amp;"':"&amp;"'"&amp;TRIM(C52)&amp;"',"</f>
+        <v>'ensure_internet_is_working':'Ensure that network is well',</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B52)&amp;"':"&amp;"'"&amp;TRIM(D52)&amp;"',"</f>
+        <v>'ensure_internet_is_working':'تأكد من أن الشبكة جيدة',</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B53)&amp;"':"&amp;"'"&amp;TRIM(C53)&amp;"',"</f>
+        <v>'OK':'Ok',</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B53)&amp;"':"&amp;"'"&amp;TRIM(D53)&amp;"',"</f>
+        <v>'OK':'نعم',</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B54)&amp;"':"&amp;"'"&amp;TRIM(C54)&amp;"',"</f>
+        <v>'not_show_again':'Dont show Again',</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B54)&amp;"':"&amp;"'"&amp;TRIM(D54)&amp;"',"</f>
+        <v>'not_show_again':'لا تظهر مرة أخرى',</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B55)&amp;"':"&amp;"'"&amp;TRIM(C55)&amp;"',"</f>
+        <v>'remove_from_cart':'Remove from Order',</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B55)&amp;"':"&amp;"'"&amp;TRIM(D55)&amp;"',"</f>
+        <v>'remove_from_cart':'إزالة من الطلب',</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B56)&amp;"':"&amp;"'"&amp;TRIM(C56)&amp;"',"</f>
+        <v>'add_tocart':'Add to Order',</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B56)&amp;"':"&amp;"'"&amp;TRIM(D56)&amp;"',"</f>
+        <v>'add_tocart':'اضافة للأمر',</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B57)&amp;"':"&amp;"'"&amp;TRIM(C57)&amp;"',"</f>
+        <v>'item_removed':'Item has been removed',</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B57)&amp;"':"&amp;"'"&amp;TRIM(D57)&amp;"',"</f>
+        <v>'item_removed':'تمت إزالة العنصر',</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B58)&amp;"':"&amp;"'"&amp;TRIM(C58)&amp;"',"</f>
+        <v>'item_cannot_del':'Item cannot deleted',</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B58)&amp;"':"&amp;"'"&amp;TRIM(D58)&amp;"',"</f>
+        <v>'item_cannot_del':'لا يمكن حذف العنصر',</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B59)&amp;"':"&amp;"'"&amp;TRIM(C59)&amp;"',"</f>
+        <v>'Sorry':'Sorry',</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B59)&amp;"':"&amp;"'"&amp;TRIM(D59)&amp;"',"</f>
+        <v>'Sorry':'آسف',</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B60)&amp;"':"&amp;"'"&amp;TRIM(C60)&amp;"',"</f>
+        <v>'item_added':'Item has been Added',</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B60)&amp;"':"&amp;"'"&amp;TRIM(D60)&amp;"',"</f>
+        <v>'item_added':'تمت إضافة العنصر',</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B61)&amp;"':"&amp;"'"&amp;TRIM(C61)&amp;"',"</f>
+        <v>'please_try_again':'Please tray again later',</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B61)&amp;"':"&amp;"'"&amp;TRIM(D61)&amp;"',"</f>
+        <v>'please_try_again':'من فضلك صينية مرة أخرى في وقت لاحق',</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B62)&amp;"':"&amp;"'"&amp;TRIM(C62)&amp;"',"</f>
+        <v>'list_not_updated':'your list cannot be fetched , please try later',</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B62)&amp;"':"&amp;"'"&amp;TRIM(D62)&amp;"',"</f>
+        <v>'list_not_updated':'لا يمكن جلب قائمتك ، يرجى المحاولة لاحقًا',</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B63)&amp;"':"&amp;"'"&amp;TRIM(C63)&amp;"',"</f>
+        <v>'canot_upload_subcategory':'Cannot Upload all sub category data, try later',</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B63)&amp;"':"&amp;"'"&amp;TRIM(D63)&amp;"',"</f>
+        <v>'canot_upload_subcategory':'لا يمكن تحميل كافة بيانات الفئة الفرعية ، حاول لاحقًا',</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B64)&amp;"':"&amp;"'"&amp;TRIM(C64)&amp;"',"</f>
+        <v>'reEnter_New_password':'Renter new Password',</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B64)&amp;"':"&amp;"'"&amp;TRIM(D64)&amp;"',"</f>
+        <v>'reEnter_New_password':'استأجر كلمة مرور جديدة',</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B65)&amp;"':"&amp;"'"&amp;TRIM(C65)&amp;"',"</f>
+        <v>'reuest_no':'Request No',</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B65)&amp;"':"&amp;"'"&amp;TRIM(D65)&amp;"',"</f>
+        <v>'reuest_no':'رقم الطلب',</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B66)&amp;"':"&amp;"'"&amp;TRIM(C66)&amp;"',"</f>
+        <v>'date':'Date',</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B66)&amp;"':"&amp;"'"&amp;TRIM(D66)&amp;"',"</f>
+        <v>'date':'تاريخ',</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B67)&amp;"':"&amp;"'"&amp;TRIM(C67)&amp;"',"</f>
+        <v>'total_price':'Total Price',</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B67)&amp;"':"&amp;"'"&amp;TRIM(D67)&amp;"',"</f>
+        <v>'total_price':'السعر الكلي',</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B68)&amp;"':"&amp;"'"&amp;TRIM(C68)&amp;"',"</f>
+        <v>'Order_list':'Order List',</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B68)&amp;"':"&amp;"'"&amp;TRIM(D68)&amp;"',"</f>
+        <v>'Order_list':'لائحة الطلبات',</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B69)&amp;"':"&amp;"'"&amp;TRIM(C69)&amp;"',"</f>
+        <v>'request_summary':'Request Summary',</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B69)&amp;"':"&amp;"'"&amp;TRIM(D69)&amp;"',"</f>
+        <v>'request_summary':'طلب ملخص',</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B70)&amp;"':"&amp;"'"&amp;TRIM(C70)&amp;"',"</f>
+        <v>'total_items_cost':'Total Items Cost',</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B70)&amp;"':"&amp;"'"&amp;TRIM(D70)&amp;"',"</f>
+        <v>'total_items_cost':'إجمالي تكلفة العناصر',</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B71)&amp;"':"&amp;"'"&amp;TRIM(C71)&amp;"',"</f>
+        <v>'enter_promo_code':'Enter Promo Code',</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B71)&amp;"':"&amp;"'"&amp;TRIM(D71)&amp;"',"</f>
+        <v>'enter_promo_code':'إدخال الرمز الترويجي',</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B72)&amp;"':"&amp;"'"&amp;TRIM(C72)&amp;"',"</f>
+        <v>'Code_check':'Check Code',</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B72)&amp;"':"&amp;"'"&amp;TRIM(D72)&amp;"',"</f>
+        <v>'Code_check':'التحقق من الشفرة',</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B73)&amp;"':"&amp;"'"&amp;TRIM(C73)&amp;"',"</f>
+        <v>'Submit':'Submit',</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B73)&amp;"':"&amp;"'"&amp;TRIM(D73)&amp;"',"</f>
+        <v>'Submit':'يقدم',</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B74)&amp;"':"&amp;"'"&amp;TRIM(C74)&amp;"',"</f>
+        <v>'request_success':'Your request has been Successfully Sent we will contact you shortly',</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B74)&amp;"':"&amp;"'"&amp;TRIM(D74)&amp;"',"</f>
+        <v>'request_success':'طلبك تم بنجاح وسوف يتواصل معك أحد فريق العمل',</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B75)&amp;"':"&amp;"'"&amp;TRIM(C75)&amp;"',"</f>
+        <v>'congr':'CONGRATULATION..!',</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B75)&amp;"':"&amp;"'"&amp;TRIM(D75)&amp;"',"</f>
+        <v>'congr':'شكرا',</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B38:B1048576 B1:B22">
+  <conditionalFormatting sqref="B74:B1048576 B1:B22">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B1048576 B1:B32">
+  <conditionalFormatting sqref="B74:B1048576 B1:B32">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B74:B1048576 B1:B36">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B74:B1048576 B1:B63">
+    <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4494,3091 +5688,3091 @@
       <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
+        <v>226</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>114</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>122</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>123</v>
+        <v>236</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>238</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>126</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>136</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>151</v>
+        <v>264</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>152</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>154</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>156</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>159</v>
+        <v>272</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>160</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>161</v>
+        <v>274</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>162</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>165</v>
+        <v>278</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>166</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>169</v>
+        <v>282</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>173</v>
+        <v>286</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>180</v>
+        <v>293</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>181</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>182</v>
+        <v>295</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>298</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>186</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>188</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>190</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>191</v>
+        <v>304</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>192</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>193</v>
+        <v>306</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>194</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>195</v>
+        <v>308</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>196</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>199</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>200</v>
+        <v>313</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>202</v>
+        <v>315</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>203</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>204</v>
+        <v>317</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>205</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>212</v>
+        <v>325</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>213</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>214</v>
+        <v>327</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>216</v>
+        <v>329</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>217</v>
+        <v>330</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>219</v>
+        <v>332</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>220</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>221</v>
+        <v>334</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>222</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>223</v>
+        <v>336</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>224</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>225</v>
+        <v>338</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>226</v>
+        <v>339</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>227</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>228</v>
+        <v>341</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>230</v>
+        <v>343</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>231</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>232</v>
+        <v>345</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>233</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>235</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>236</v>
+        <v>349</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>237</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>238</v>
+        <v>351</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>239</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>242</v>
+        <v>355</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>243</v>
+        <v>356</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>244</v>
+        <v>357</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>245</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>246</v>
+        <v>359</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>247</v>
+        <v>360</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>249</v>
+        <v>362</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>252</v>
+        <v>365</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>253</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>254</v>
+        <v>367</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>255</v>
+        <v>368</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>257</v>
+        <v>370</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>258</v>
+        <v>371</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>259</v>
+        <v>372</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>263</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>264</v>
+        <v>377</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>265</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>267</v>
+        <v>380</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>269</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>270</v>
+        <v>383</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>271</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>272</v>
+        <v>385</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>273</v>
+        <v>386</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>274</v>
+        <v>387</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>275</v>
+        <v>388</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>276</v>
+        <v>389</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>277</v>
+        <v>390</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>278</v>
+        <v>391</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>279</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>280</v>
+        <v>393</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>281</v>
+        <v>394</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>286</v>
+        <v>399</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>287</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>288</v>
+        <v>401</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>289</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>291</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>292</v>
+        <v>405</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>293</v>
+        <v>406</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>294</v>
+        <v>407</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>296</v>
+        <v>409</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>297</v>
+        <v>410</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>298</v>
+        <v>411</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>299</v>
+        <v>412</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>300</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>301</v>
+        <v>414</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>302</v>
+        <v>415</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>303</v>
+        <v>416</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>304</v>
+        <v>417</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>305</v>
+        <v>418</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>306</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>307</v>
+        <v>420</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>309</v>
+        <v>422</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>310</v>
+        <v>423</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>311</v>
+        <v>424</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>312</v>
+        <v>425</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>313</v>
+        <v>426</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>314</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>315</v>
+        <v>428</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>316</v>
+        <v>429</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>317</v>
+        <v>430</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>318</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>320</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>321</v>
+        <v>434</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>322</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>323</v>
+        <v>436</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>324</v>
+        <v>437</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>325</v>
+        <v>438</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>326</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>327</v>
+        <v>440</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>328</v>
+        <v>441</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>329</v>
+        <v>442</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>330</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>331</v>
+        <v>444</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>332</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>333</v>
+        <v>446</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>334</v>
+        <v>447</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>335</v>
+        <v>448</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>337</v>
+        <v>450</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>338</v>
+        <v>451</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>341</v>
+        <v>454</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>342</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>343</v>
+        <v>456</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>343</v>
+        <v>456</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>344</v>
+        <v>457</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>345</v>
+        <v>458</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>345</v>
+        <v>458</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>346</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>347</v>
+        <v>460</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>348</v>
+        <v>461</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>349</v>
+        <v>462</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>349</v>
+        <v>462</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>350</v>
+        <v>463</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>351</v>
+        <v>464</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>352</v>
+        <v>465</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>353</v>
+        <v>466</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>354</v>
+        <v>467</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>356</v>
+        <v>469</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>357</v>
+        <v>470</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>358</v>
+        <v>471</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>359</v>
+        <v>472</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>360</v>
+        <v>473</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>361</v>
+        <v>474</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>362</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>363</v>
+        <v>476</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>364</v>
+        <v>477</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="s">
-        <v>365</v>
+        <v>478</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>366</v>
+        <v>479</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>367</v>
+        <v>480</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
-        <v>368</v>
+        <v>481</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>368</v>
+        <v>481</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>369</v>
+        <v>482</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>370</v>
+        <v>483</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>371</v>
+        <v>484</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>373</v>
+        <v>486</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>375</v>
+        <v>488</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>376</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="s">
-        <v>377</v>
+        <v>490</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>378</v>
+        <v>491</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>379</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>380</v>
+        <v>493</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>381</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>382</v>
+        <v>495</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>384</v>
+        <v>497</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>385</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>386</v>
+        <v>499</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>387</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>389</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>390</v>
+        <v>503</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>390</v>
+        <v>503</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>391</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
-        <v>392</v>
+        <v>505</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>393</v>
+        <v>506</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>394</v>
+        <v>507</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="s">
-        <v>395</v>
+        <v>508</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>395</v>
+        <v>508</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>396</v>
+        <v>509</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>397</v>
+        <v>510</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>398</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>399</v>
+        <v>512</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>400</v>
+        <v>513</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="s">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>401</v>
+        <v>514</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>402</v>
+        <v>515</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>403</v>
+        <v>516</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>404</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>405</v>
+        <v>518</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>406</v>
+        <v>519</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="1" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>408</v>
+        <v>521</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1" t="s">
-        <v>409</v>
+        <v>522</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>409</v>
+        <v>522</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>410</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="s">
-        <v>411</v>
+        <v>524</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>412</v>
+        <v>525</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>413</v>
+        <v>526</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>414</v>
+        <v>527</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>415</v>
+        <v>528</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>416</v>
+        <v>529</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>417</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="1" t="s">
-        <v>418</v>
+        <v>531</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>419</v>
+        <v>532</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>420</v>
+        <v>533</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
-        <v>421</v>
+        <v>534</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>422</v>
+        <v>535</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>423</v>
+        <v>536</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>424</v>
+        <v>537</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>425</v>
+        <v>538</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
-        <v>426</v>
+        <v>539</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>426</v>
+        <v>539</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>427</v>
+        <v>540</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="1" t="s">
-        <v>428</v>
+        <v>541</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>428</v>
+        <v>541</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>429</v>
+        <v>542</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1" t="s">
-        <v>430</v>
+        <v>543</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>430</v>
+        <v>543</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>431</v>
+        <v>544</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="1" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>432</v>
+        <v>545</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>433</v>
+        <v>546</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1" t="s">
-        <v>434</v>
+        <v>547</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>435</v>
+        <v>548</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>436</v>
+        <v>549</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>437</v>
+        <v>550</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>438</v>
+        <v>551</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="s">
-        <v>439</v>
+        <v>552</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>439</v>
+        <v>552</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>440</v>
+        <v>553</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="s">
-        <v>441</v>
+        <v>554</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>441</v>
+        <v>554</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>442</v>
+        <v>555</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="s">
-        <v>443</v>
+        <v>556</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>444</v>
+        <v>557</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>445</v>
+        <v>558</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1" t="s">
-        <v>446</v>
+        <v>559</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>446</v>
+        <v>559</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>447</v>
+        <v>560</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
-        <v>448</v>
+        <v>561</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>449</v>
+        <v>562</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>450</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="1" t="s">
-        <v>451</v>
+        <v>564</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>452</v>
+        <v>565</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>453</v>
+        <v>566</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="1" t="s">
-        <v>454</v>
+        <v>567</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>454</v>
+        <v>567</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>455</v>
+        <v>568</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="s">
-        <v>456</v>
+        <v>569</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>457</v>
+        <v>570</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>458</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>459</v>
+        <v>572</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>460</v>
+        <v>573</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1" t="s">
-        <v>461</v>
+        <v>574</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>461</v>
+        <v>574</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>462</v>
+        <v>575</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1" t="s">
-        <v>463</v>
+        <v>576</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>463</v>
+        <v>576</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>464</v>
+        <v>577</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
-        <v>465</v>
+        <v>578</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>465</v>
+        <v>578</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>466</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="s">
-        <v>467</v>
+        <v>580</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>467</v>
+        <v>580</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>468</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="s">
-        <v>469</v>
+        <v>582</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>469</v>
+        <v>582</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>472</v>
+        <v>585</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="s">
-        <v>473</v>
+        <v>586</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>473</v>
+        <v>586</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>474</v>
+        <v>587</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="1" t="s">
-        <v>475</v>
+        <v>588</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>475</v>
+        <v>588</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>476</v>
+        <v>589</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="1" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>477</v>
+        <v>590</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>478</v>
+        <v>591</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
-        <v>479</v>
+        <v>592</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>479</v>
+        <v>592</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>480</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
-        <v>481</v>
+        <v>594</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>481</v>
+        <v>594</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>482</v>
+        <v>595</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
-        <v>483</v>
+        <v>596</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>484</v>
+        <v>597</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>485</v>
+        <v>598</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="1" t="s">
-        <v>486</v>
+        <v>599</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>486</v>
+        <v>599</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>487</v>
+        <v>600</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="s">
-        <v>488</v>
+        <v>601</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>488</v>
+        <v>601</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>489</v>
+        <v>602</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="s">
-        <v>490</v>
+        <v>603</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>490</v>
+        <v>603</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>491</v>
+        <v>604</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="s">
-        <v>492</v>
+        <v>605</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>492</v>
+        <v>605</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>493</v>
+        <v>606</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="1" t="s">
-        <v>494</v>
+        <v>607</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>494</v>
+        <v>607</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>495</v>
+        <v>608</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>496</v>
+        <v>609</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>496</v>
+        <v>609</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>497</v>
+        <v>610</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1" t="s">
-        <v>498</v>
+        <v>611</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>498</v>
+        <v>611</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>499</v>
+        <v>612</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
-        <v>500</v>
+        <v>613</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>500</v>
+        <v>613</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>501</v>
+        <v>614</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
-        <v>502</v>
+        <v>615</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>502</v>
+        <v>615</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>503</v>
+        <v>616</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1" t="s">
-        <v>504</v>
+        <v>617</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>504</v>
+        <v>617</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>505</v>
+        <v>618</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="s">
-        <v>506</v>
+        <v>619</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>506</v>
+        <v>619</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>507</v>
+        <v>620</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>509</v>
+        <v>622</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="s">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>510</v>
+        <v>623</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>511</v>
+        <v>624</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="s">
-        <v>512</v>
+        <v>625</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>513</v>
+        <v>626</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>514</v>
+        <v>627</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="s">
-        <v>515</v>
+        <v>628</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>516</v>
+        <v>629</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>517</v>
+        <v>630</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="s">
-        <v>518</v>
+        <v>631</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>519</v>
+        <v>632</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>520</v>
+        <v>633</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>522</v>
+        <v>635</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>523</v>
+        <v>636</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="s">
-        <v>524</v>
+        <v>637</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>524</v>
+        <v>637</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>525</v>
+        <v>638</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>532</v>
+        <v>645</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="s">
-        <v>533</v>
+        <v>646</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>534</v>
+        <v>647</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>535</v>
+        <v>648</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>537</v>
+        <v>650</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>539</v>
+        <v>652</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="s">
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>541</v>
+        <v>654</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>542</v>
+        <v>655</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>544</v>
+        <v>657</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>546</v>
+        <v>659</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="s">
-        <v>547</v>
+        <v>660</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>547</v>
+        <v>660</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>548</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="s">
-        <v>549</v>
+        <v>662</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>549</v>
+        <v>662</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>550</v>
+        <v>663</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="s">
-        <v>551</v>
+        <v>664</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>551</v>
+        <v>664</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>552</v>
+        <v>665</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="s">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>554</v>
+        <v>667</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="s">
-        <v>555</v>
+        <v>668</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>555</v>
+        <v>668</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>556</v>
+        <v>669</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="s">
-        <v>557</v>
+        <v>670</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>557</v>
+        <v>670</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>558</v>
+        <v>671</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>560</v>
+        <v>673</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>562</v>
+        <v>675</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>563</v>
+        <v>676</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>565</v>
+        <v>678</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="s">
-        <v>566</v>
+        <v>679</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>567</v>
+        <v>680</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>568</v>
+        <v>681</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>570</v>
+        <v>683</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>571</v>
+        <v>684</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>573</v>
+        <v>686</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="s">
-        <v>574</v>
+        <v>687</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>574</v>
+        <v>687</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>575</v>
+        <v>688</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="s">
-        <v>576</v>
+        <v>689</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>577</v>
+        <v>690</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="s">
-        <v>579</v>
+        <v>692</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>581</v>
+        <v>694</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="s">
-        <v>582</v>
+        <v>695</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>582</v>
+        <v>695</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>583</v>
+        <v>696</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="s">
-        <v>584</v>
+        <v>697</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>584</v>
+        <v>697</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>585</v>
+        <v>698</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="s">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>587</v>
+        <v>700</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>589</v>
+        <v>702</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="s">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>593</v>
+        <v>706</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>595</v>
+        <v>708</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>597</v>
+        <v>710</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="s">
-        <v>598</v>
+        <v>711</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>598</v>
+        <v>711</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>599</v>
+        <v>712</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="s">
-        <v>600</v>
+        <v>713</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>600</v>
+        <v>713</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>601</v>
+        <v>714</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>603</v>
+        <v>716</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>605</v>
+        <v>718</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="s">
-        <v>606</v>
+        <v>719</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>607</v>
+        <v>720</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>608</v>
+        <v>721</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="s">
-        <v>609</v>
+        <v>722</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>610</v>
+        <v>723</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="s">
-        <v>612</v>
+        <v>725</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>613</v>
+        <v>726</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>616</v>
+        <v>729</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>617</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="s">
-        <v>618</v>
+        <v>731</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>619</v>
+        <v>732</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>620</v>
+        <v>733</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="s">
-        <v>621</v>
+        <v>734</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>622</v>
+        <v>735</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>623</v>
+        <v>736</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="s">
-        <v>624</v>
+        <v>737</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>624</v>
+        <v>737</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>625</v>
+        <v>738</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>627</v>
+        <v>740</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="s">
-        <v>628</v>
+        <v>741</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>628</v>
+        <v>741</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>629</v>
+        <v>742</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="s">
-        <v>630</v>
+        <v>743</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>630</v>
+        <v>743</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>631</v>
+        <v>744</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="s">
-        <v>634</v>
+        <v>747</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>634</v>
+        <v>747</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>635</v>
+        <v>748</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="s">
-        <v>636</v>
+        <v>749</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>636</v>
+        <v>749</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>637</v>
+        <v>750</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="s">
-        <v>638</v>
+        <v>751</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>638</v>
+        <v>751</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>639</v>
+        <v>752</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="s">
-        <v>640</v>
+        <v>753</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>641</v>
+        <v>754</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>642</v>
+        <v>755</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="s">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>644</v>
+        <v>757</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>646</v>
+        <v>759</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="s">
-        <v>647</v>
+        <v>760</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>647</v>
+        <v>760</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>648</v>
+        <v>761</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="s">
-        <v>649</v>
+        <v>762</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>650</v>
+        <v>763</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>651</v>
+        <v>764</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="s">
-        <v>652</v>
+        <v>765</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>652</v>
+        <v>765</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>653</v>
+        <v>766</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="s">
-        <v>654</v>
+        <v>767</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>654</v>
+        <v>767</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>655</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="s">
-        <v>656</v>
+        <v>769</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>656</v>
+        <v>769</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>657</v>
+        <v>770</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>658</v>
+        <v>771</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>658</v>
+        <v>771</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>659</v>
+        <v>772</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="s">
-        <v>660</v>
+        <v>773</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>660</v>
+        <v>773</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>661</v>
+        <v>774</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="s">
-        <v>662</v>
+        <v>775</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>662</v>
+        <v>775</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>663</v>
+        <v>776</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="s">
-        <v>664</v>
+        <v>777</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>664</v>
+        <v>777</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>665</v>
+        <v>778</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="s">
-        <v>666</v>
+        <v>779</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>666</v>
+        <v>779</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>667</v>
+        <v>780</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="s">
-        <v>668</v>
+        <v>781</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>669</v>
+        <v>782</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>670</v>
+        <v>783</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="s">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>672</v>
+        <v>785</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="s">
-        <v>673</v>
+        <v>786</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>673</v>
+        <v>786</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>674</v>
+        <v>787</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>676</v>
+        <v>789</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>678</v>
+        <v>791</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>680</v>
+        <v>793</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="s">
-        <v>681</v>
+        <v>794</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>681</v>
+        <v>794</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>682</v>
+        <v>795</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>683</v>
+        <v>796</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>683</v>
+        <v>796</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>684</v>
+        <v>797</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1" t="s">
-        <v>685</v>
+        <v>798</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>686</v>
+        <v>799</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1" t="s">
-        <v>688</v>
+        <v>801</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>689</v>
+        <v>802</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>690</v>
+        <v>803</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1" t="s">
-        <v>691</v>
+        <v>804</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>692</v>
+        <v>805</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>693</v>
+        <v>806</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
-        <v>694</v>
+        <v>807</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>695</v>
+        <v>808</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>696</v>
+        <v>809</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="1" t="s">
-        <v>697</v>
+        <v>810</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>698</v>
+        <v>811</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>699</v>
+        <v>812</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
-        <v>700</v>
+        <v>813</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>701</v>
+        <v>814</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>702</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1" t="s">
-        <v>703</v>
+        <v>816</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>703</v>
+        <v>816</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>704</v>
+        <v>817</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="1" t="s">
-        <v>705</v>
+        <v>818</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>705</v>
+        <v>818</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>706</v>
+        <v>819</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1" t="s">
-        <v>707</v>
+        <v>820</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>707</v>
+        <v>820</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>708</v>
+        <v>821</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="1" t="s">
-        <v>709</v>
+        <v>822</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>710</v>
+        <v>823</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>711</v>
+        <v>824</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
-        <v>712</v>
+        <v>825</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>712</v>
+        <v>825</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>713</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B283">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -7601,14 +8795,14 @@
       <selection pane="topLeft" activeCell="D152" activeCellId="0" sqref="D152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>714</v>
+        <v>827</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>715</v>
+        <v>828</v>
       </c>
       <c r="C1" s="1" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -7621,10 +8815,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>716</v>
+        <v>829</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>717</v>
+        <v>830</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -7637,10 +8831,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>718</v>
+        <v>831</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>719</v>
+        <v>832</v>
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -7653,10 +8847,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>720</v>
+        <v>833</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>721</v>
+        <v>834</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -7669,10 +8863,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>722</v>
+        <v>835</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>723</v>
+        <v>836</v>
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -7685,10 +8879,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>724</v>
+        <v>837</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>725</v>
+        <v>838</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -7701,10 +8895,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>726</v>
+        <v>839</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -7717,10 +8911,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>728</v>
+        <v>841</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>729</v>
+        <v>842</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -7733,10 +8927,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>730</v>
+        <v>843</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>731</v>
+        <v>844</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -7749,10 +8943,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>732</v>
+        <v>845</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>733</v>
+        <v>846</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -7765,10 +8959,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>734</v>
+        <v>847</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>735</v>
+        <v>848</v>
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -7781,10 +8975,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>736</v>
+        <v>849</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>737</v>
+        <v>850</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -7797,10 +8991,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>738</v>
+        <v>851</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>739</v>
+        <v>852</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -7813,10 +9007,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>740</v>
+        <v>853</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>741</v>
+        <v>854</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -7829,10 +9023,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>742</v>
+        <v>855</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>743</v>
+        <v>856</v>
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -7845,10 +9039,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>744</v>
+        <v>857</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>745</v>
+        <v>858</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -7861,10 +9055,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>746</v>
+        <v>859</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>747</v>
+        <v>860</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -7877,10 +9071,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>748</v>
+        <v>861</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>749</v>
+        <v>862</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -7893,10 +9087,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>750</v>
+        <v>863</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>751</v>
+        <v>864</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -7909,10 +9103,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>752</v>
+        <v>865</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>753</v>
+        <v>866</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -7925,10 +9119,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>754</v>
+        <v>867</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>755</v>
+        <v>868</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -7941,10 +9135,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>756</v>
+        <v>869</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>757</v>
+        <v>870</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -7957,10 +9151,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>758</v>
+        <v>871</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>759</v>
+        <v>872</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -7973,10 +9167,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>760</v>
+        <v>873</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>761</v>
+        <v>874</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -7989,10 +9183,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>762</v>
+        <v>875</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>763</v>
+        <v>876</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -8005,10 +9199,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>764</v>
+        <v>877</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>765</v>
+        <v>878</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -8021,10 +9215,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>766</v>
+        <v>879</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>767</v>
+        <v>880</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -8037,10 +9231,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>768</v>
+        <v>881</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>769</v>
+        <v>882</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -8053,10 +9247,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>770</v>
+        <v>883</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>771</v>
+        <v>884</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -8069,10 +9263,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>772</v>
+        <v>885</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>773</v>
+        <v>886</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -8085,10 +9279,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>774</v>
+        <v>887</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>775</v>
+        <v>888</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -8101,10 +9295,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>776</v>
+        <v>889</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>777</v>
+        <v>890</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -8117,10 +9311,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>778</v>
+        <v>891</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>779</v>
+        <v>892</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -8133,10 +9327,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>780</v>
+        <v>893</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>781</v>
+        <v>894</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -8149,10 +9343,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>782</v>
+        <v>895</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>783</v>
+        <v>896</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -8165,10 +9359,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>784</v>
+        <v>897</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>785</v>
+        <v>898</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -8181,10 +9375,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>786</v>
+        <v>899</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>787</v>
+        <v>900</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -8197,10 +9391,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>788</v>
+        <v>901</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>789</v>
+        <v>902</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -8213,10 +9407,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>790</v>
+        <v>903</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>791</v>
+        <v>904</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -8229,10 +9423,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>792</v>
+        <v>905</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>793</v>
+        <v>906</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -8245,10 +9439,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>794</v>
+        <v>907</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>795</v>
+        <v>908</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -8261,10 +9455,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>796</v>
+        <v>909</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>797</v>
+        <v>910</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -8277,10 +9471,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>798</v>
+        <v>911</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>799</v>
+        <v>912</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -8293,10 +9487,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>800</v>
+        <v>913</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>801</v>
+        <v>914</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -8309,10 +9503,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>802</v>
+        <v>915</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>803</v>
+        <v>916</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -8325,10 +9519,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>804</v>
+        <v>917</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>805</v>
+        <v>918</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -8341,10 +9535,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>806</v>
+        <v>919</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>807</v>
+        <v>920</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -8357,10 +9551,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>808</v>
+        <v>921</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>809</v>
+        <v>922</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -8373,10 +9567,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>810</v>
+        <v>923</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>811</v>
+        <v>924</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -8389,10 +9583,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>812</v>
+        <v>925</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>813</v>
+        <v>926</v>
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -8405,10 +9599,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>814</v>
+        <v>927</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>815</v>
+        <v>928</v>
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -8421,10 +9615,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>816</v>
+        <v>929</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>817</v>
+        <v>930</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -8437,10 +9631,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>818</v>
+        <v>931</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>819</v>
+        <v>932</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -8453,10 +9647,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>820</v>
+        <v>933</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>821</v>
+        <v>934</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -8469,10 +9663,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>822</v>
+        <v>935</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>823</v>
+        <v>936</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -8485,10 +9679,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>824</v>
+        <v>937</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>825</v>
+        <v>938</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -8501,10 +9695,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>826</v>
+        <v>939</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>827</v>
+        <v>940</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -8517,10 +9711,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>828</v>
+        <v>941</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>829</v>
+        <v>942</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -8533,10 +9727,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>830</v>
+        <v>943</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>831</v>
+        <v>944</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -8549,10 +9743,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>832</v>
+        <v>945</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>833</v>
+        <v>946</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -8565,10 +9759,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>834</v>
+        <v>947</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>835</v>
+        <v>948</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -8581,10 +9775,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>836</v>
+        <v>949</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>837</v>
+        <v>950</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -8597,10 +9791,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>838</v>
+        <v>951</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>839</v>
+        <v>952</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -8613,10 +9807,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>840</v>
+        <v>953</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>841</v>
+        <v>954</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -8629,10 +9823,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>842</v>
+        <v>955</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>843</v>
+        <v>956</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -8645,10 +9839,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>844</v>
+        <v>957</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>845</v>
+        <v>958</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -8661,10 +9855,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>846</v>
+        <v>959</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>847</v>
+        <v>960</v>
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -8677,10 +9871,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>848</v>
+        <v>961</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>849</v>
+        <v>962</v>
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -8693,10 +9887,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>850</v>
+        <v>963</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>851</v>
+        <v>964</v>
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -8709,10 +9903,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>852</v>
+        <v>965</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>853</v>
+        <v>966</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -8725,10 +9919,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>854</v>
+        <v>967</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>855</v>
+        <v>968</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -8741,10 +9935,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>856</v>
+        <v>969</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>857</v>
+        <v>970</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -8757,10 +9951,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>858</v>
+        <v>971</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>859</v>
+        <v>972</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -8773,10 +9967,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>860</v>
+        <v>973</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>861</v>
+        <v>974</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -8789,10 +9983,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>862</v>
+        <v>975</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>863</v>
+        <v>976</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -8805,10 +9999,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>864</v>
+        <v>977</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>865</v>
+        <v>978</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -8821,10 +10015,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>866</v>
+        <v>979</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>867</v>
+        <v>980</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -8837,10 +10031,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>868</v>
+        <v>981</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>869</v>
+        <v>982</v>
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -8853,10 +10047,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>870</v>
+        <v>983</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>871</v>
+        <v>984</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -8869,10 +10063,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>872</v>
+        <v>985</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>873</v>
+        <v>986</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -8885,10 +10079,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>874</v>
+        <v>987</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>875</v>
+        <v>988</v>
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -8901,10 +10095,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>876</v>
+        <v>989</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>877</v>
+        <v>990</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -8917,10 +10111,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>878</v>
+        <v>991</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>879</v>
+        <v>992</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -8933,10 +10127,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>880</v>
+        <v>993</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>881</v>
+        <v>994</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -8949,10 +10143,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>882</v>
+        <v>995</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>883</v>
+        <v>996</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -8965,10 +10159,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>884</v>
+        <v>997</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>885</v>
+        <v>998</v>
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -8981,10 +10175,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>886</v>
+        <v>999</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>887</v>
+        <v>1000</v>
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -8997,10 +10191,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>888</v>
+        <v>1001</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>889</v>
+        <v>1002</v>
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -9013,10 +10207,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>890</v>
+        <v>1003</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>891</v>
+        <v>1004</v>
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -9029,10 +10223,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>892</v>
+        <v>1005</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>893</v>
+        <v>1006</v>
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -9045,10 +10239,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>894</v>
+        <v>1007</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>895</v>
+        <v>1008</v>
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -9061,10 +10255,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>896</v>
+        <v>1009</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>897</v>
+        <v>1010</v>
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -9077,10 +10271,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>898</v>
+        <v>1011</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>899</v>
+        <v>1012</v>
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -9093,10 +10287,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>900</v>
+        <v>1013</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>901</v>
+        <v>1014</v>
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -9109,10 +10303,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>902</v>
+        <v>1015</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>903</v>
+        <v>1016</v>
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -9125,10 +10319,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>904</v>
+        <v>1017</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>905</v>
+        <v>1018</v>
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -9141,10 +10335,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>906</v>
+        <v>1019</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>907</v>
+        <v>1020</v>
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -9157,10 +10351,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>908</v>
+        <v>1021</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>909</v>
+        <v>1022</v>
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -9173,10 +10367,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>910</v>
+        <v>1023</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>911</v>
+        <v>1024</v>
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -9189,10 +10383,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>912</v>
+        <v>1025</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>913</v>
+        <v>1026</v>
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -9205,10 +10399,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>914</v>
+        <v>1027</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>915</v>
+        <v>1028</v>
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -9221,10 +10415,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>916</v>
+        <v>1029</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>917</v>
+        <v>1030</v>
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -9237,10 +10431,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>918</v>
+        <v>1031</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>919</v>
+        <v>1032</v>
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -9253,10 +10447,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>920</v>
+        <v>1033</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>921</v>
+        <v>1034</v>
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -9269,10 +10463,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>922</v>
+        <v>1035</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>923</v>
+        <v>1036</v>
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -9285,10 +10479,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>924</v>
+        <v>1037</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>925</v>
+        <v>1038</v>
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -9301,10 +10495,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>926</v>
+        <v>1039</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>927</v>
+        <v>1040</v>
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -9317,10 +10511,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>928</v>
+        <v>1041</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>929</v>
+        <v>1042</v>
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -9333,10 +10527,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>930</v>
+        <v>1043</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>931</v>
+        <v>1044</v>
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -9349,10 +10543,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>932</v>
+        <v>1045</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>933</v>
+        <v>1046</v>
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -9365,10 +10559,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>934</v>
+        <v>1047</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>935</v>
+        <v>1048</v>
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -9381,10 +10575,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>936</v>
+        <v>1049</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>937</v>
+        <v>1050</v>
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -9397,10 +10591,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>938</v>
+        <v>1051</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>939</v>
+        <v>1052</v>
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -9413,10 +10607,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>940</v>
+        <v>1053</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>941</v>
+        <v>1054</v>
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -9429,10 +10623,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>942</v>
+        <v>1055</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>943</v>
+        <v>1056</v>
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -9445,10 +10639,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>944</v>
+        <v>1057</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>945</v>
+        <v>1058</v>
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -9461,10 +10655,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>946</v>
+        <v>1059</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>947</v>
+        <v>1060</v>
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -9477,10 +10671,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>948</v>
+        <v>1061</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>949</v>
+        <v>1062</v>
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -9493,10 +10687,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>950</v>
+        <v>1063</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>951</v>
+        <v>1064</v>
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -9509,10 +10703,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>952</v>
+        <v>1065</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>953</v>
+        <v>1066</v>
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -9525,10 +10719,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>954</v>
+        <v>1067</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>955</v>
+        <v>1068</v>
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -9541,10 +10735,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>956</v>
+        <v>1069</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>957</v>
+        <v>1070</v>
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -9557,10 +10751,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>958</v>
+        <v>1071</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>959</v>
+        <v>1072</v>
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -9573,10 +10767,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>960</v>
+        <v>1073</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>961</v>
+        <v>1074</v>
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -9589,10 +10783,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>962</v>
+        <v>1075</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>963</v>
+        <v>1076</v>
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -9605,10 +10799,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>964</v>
+        <v>1077</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>965</v>
+        <v>1078</v>
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -9621,10 +10815,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>966</v>
+        <v>1079</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>967</v>
+        <v>1080</v>
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -9637,10 +10831,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>969</v>
+        <v>1082</v>
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -9653,10 +10847,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>970</v>
+        <v>1083</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>971</v>
+        <v>1084</v>
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -9669,10 +10863,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>972</v>
+        <v>1085</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>973</v>
+        <v>1086</v>
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -9685,10 +10879,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>974</v>
+        <v>1087</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>975</v>
+        <v>1088</v>
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -9701,10 +10895,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>976</v>
+        <v>1089</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>977</v>
+        <v>1090</v>
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -9717,10 +10911,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>978</v>
+        <v>1091</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>979</v>
+        <v>1092</v>
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -9733,10 +10927,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>980</v>
+        <v>1093</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>981</v>
+        <v>1094</v>
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -9749,10 +10943,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>982</v>
+        <v>1095</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>983</v>
+        <v>1096</v>
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -9765,10 +10959,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>984</v>
+        <v>1097</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>985</v>
+        <v>1098</v>
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -9781,10 +10975,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>986</v>
+        <v>1099</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>987</v>
+        <v>1100</v>
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -9797,10 +10991,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>988</v>
+        <v>1101</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>989</v>
+        <v>1102</v>
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -9813,10 +11007,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>990</v>
+        <v>1103</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>991</v>
+        <v>1104</v>
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -9829,10 +11023,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>992</v>
+        <v>1105</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>993</v>
+        <v>1106</v>
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -9845,10 +11039,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>994</v>
+        <v>1107</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>995</v>
+        <v>1108</v>
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -9861,10 +11055,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>996</v>
+        <v>1109</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>997</v>
+        <v>1110</v>
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -9877,10 +11071,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>998</v>
+        <v>1111</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>999</v>
+        <v>1112</v>
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -9893,10 +11087,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1000</v>
+        <v>1113</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1001</v>
+        <v>1114</v>
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -9909,10 +11103,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1002</v>
+        <v>1115</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1003</v>
+        <v>1116</v>
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -9925,10 +11119,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1004</v>
+        <v>1117</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1005</v>
+        <v>1118</v>
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -9941,10 +11135,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1006</v>
+        <v>1119</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1007</v>
+        <v>1120</v>
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -9957,10 +11151,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1008</v>
+        <v>1121</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1009</v>
+        <v>1122</v>
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -9973,10 +11167,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1010</v>
+        <v>1123</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1011</v>
+        <v>1124</v>
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -9989,10 +11183,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1012</v>
+        <v>1125</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1013</v>
+        <v>1126</v>
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -10005,10 +11199,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1014</v>
+        <v>1127</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1015</v>
+        <v>1128</v>
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -10021,10 +11215,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1016</v>
+        <v>1129</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1017</v>
+        <v>1130</v>
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -10057,11 +11251,11 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1018</v>
+        <v>1131</v>
       </c>
       <c r="B1" s="1" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -10072,12 +11266,12 @@
         <v>Algiers</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1019</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1020</v>
+        <v>1133</v>
       </c>
       <c r="B2" s="1" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -10088,12 +11282,12 @@
         <v>Annaba</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1021</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1022</v>
+        <v>1135</v>
       </c>
       <c r="B3" s="1" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -10104,12 +11298,12 @@
         <v>Azazga</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1023</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1024</v>
+        <v>1137</v>
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -10120,12 +11314,12 @@
         <v>Batna City</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1025</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1026</v>
+        <v>1139</v>
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -10136,12 +11330,12 @@
         <v>Blida</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1027</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1028</v>
+        <v>1141</v>
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -10152,12 +11346,12 @@
         <v>Bordj</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1029</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1030</v>
+        <v>1143</v>
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -10168,12 +11362,12 @@
         <v>Bordj Bou Arreridj</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1031</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1032</v>
+        <v>1145</v>
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -10184,12 +11378,12 @@
         <v>Bougara</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1033</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1034</v>
+        <v>1147</v>
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -10200,12 +11394,12 @@
         <v>Cheraga</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1035</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1036</v>
+        <v>1149</v>
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -10216,12 +11410,12 @@
         <v>Chlef</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1037</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1038</v>
+        <v>1151</v>
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -10232,12 +11426,12 @@
         <v>Constantine</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1039</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1040</v>
+        <v>1153</v>
       </c>
       <c r="B12" s="1" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -10248,12 +11442,12 @@
         <v>Djelfa</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1041</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1042</v>
+        <v>1155</v>
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -10264,12 +11458,12 @@
         <v>Draria</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1043</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1044</v>
+        <v>1157</v>
       </c>
       <c r="B14" s="1" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -10280,12 +11474,12 @@
         <v>El Tarf</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1045</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1046</v>
+        <v>1159</v>
       </c>
       <c r="B15" s="1" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -10296,12 +11490,12 @@
         <v>Hussein Dey</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1047</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1048</v>
+        <v>1161</v>
       </c>
       <c r="B16" s="1" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -10312,12 +11506,12 @@
         <v>Illizi</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1049</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1050</v>
+        <v>1163</v>
       </c>
       <c r="B17" s="1" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -10328,12 +11522,12 @@
         <v>Jijel</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1051</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1052</v>
+        <v>1165</v>
       </c>
       <c r="B18" s="1" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -10344,12 +11538,12 @@
         <v>Kouba</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1053</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1054</v>
+        <v>1167</v>
       </c>
       <c r="B19" s="1" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -10360,12 +11554,12 @@
         <v>Laghouat</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1055</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1056</v>
+        <v>1169</v>
       </c>
       <c r="B20" s="1" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -10376,12 +11570,12 @@
         <v>Oran</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1057</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1058</v>
+        <v>1171</v>
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -10392,12 +11586,12 @@
         <v>Ouargla</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1059</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1060</v>
+        <v>1173</v>
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -10408,12 +11602,12 @@
         <v>Oued Smar</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1061</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1062</v>
+        <v>1175</v>
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -10424,12 +11618,12 @@
         <v>Relizane</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1063</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1064</v>
+        <v>1177</v>
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -10440,12 +11634,12 @@
         <v>Rouiba</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1065</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1066</v>
+        <v>1179</v>
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -10456,12 +11650,12 @@
         <v>Saida</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1067</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1068</v>
+        <v>1181</v>
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -10472,12 +11666,12 @@
         <v>Souk Ahras</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1069</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1070</v>
+        <v>1183</v>
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -10488,12 +11682,12 @@
         <v>Tamanghasset</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1071</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1072</v>
+        <v>1185</v>
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -10504,12 +11698,12 @@
         <v>Tiaret</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1073</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1074</v>
+        <v>1187</v>
       </c>
       <c r="B29" s="1" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -10520,12 +11714,12 @@
         <v>Tissemsilt</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1075</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1076</v>
+        <v>1189</v>
       </c>
       <c r="B30" s="1" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -10536,12 +11730,12 @@
         <v>Tizi</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1077</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1078</v>
+        <v>1191</v>
       </c>
       <c r="B31" s="1" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -10552,12 +11746,12 @@
         <v>Tizi Ouzou</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1079</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1080</v>
+        <v>1193</v>
       </c>
       <c r="B32" s="1" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -10568,12 +11762,12 @@
         <v>Tlemcen</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1081</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1082</v>
+        <v>1195</v>
       </c>
       <c r="B33" s="1" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -10584,12 +11778,12 @@
         <v>Abraq Khaytan</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1083</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1084</v>
+        <v>1197</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -10600,12 +11794,12 @@
         <v>Ad Dasmah</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1085</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1086</v>
+        <v>1199</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -10616,12 +11810,12 @@
         <v>Ad Dawhah</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1086</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1087</v>
+        <v>1200</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -10632,12 +11826,12 @@
         <v>Al Ahmadi</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1088</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1089</v>
+        <v>1202</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -10648,12 +11842,12 @@
         <v>Al Farwaniyah</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1090</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1091</v>
+        <v>1204</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -10664,12 +11858,12 @@
         <v>Al Shamiya</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1092</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>529</v>
+        <v>642</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -10680,12 +11874,12 @@
         <v>Ar Rawdah</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1093</v>
+        <v>1206</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -10696,12 +11890,12 @@
         <v>As Salimiyah</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1094</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1095</v>
+        <v>1208</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -10712,12 +11906,12 @@
         <v>Ash Shu`aybah</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1096</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1097</v>
+        <v>1210</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -10728,12 +11922,12 @@
         <v>Ash Shuwaykh</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1098</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1099</v>
+        <v>1212</v>
       </c>
       <c r="B43" s="1" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -10744,12 +11938,12 @@
         <v>Bayan</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1100</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1101</v>
+        <v>1214</v>
       </c>
       <c r="B44" s="1" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -10760,12 +11954,12 @@
         <v>Hawalli</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1102</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1103</v>
+        <v>1216</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -10776,12 +11970,12 @@
         <v>Janub as Surrah</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1104</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1105</v>
+        <v>1218</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -10792,12 +11986,12 @@
         <v>Kayfan</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1106</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1107</v>
+        <v>1220</v>
       </c>
       <c r="B47" s="1" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -10808,12 +12002,12 @@
         <v>Kuwait City</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1108</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1109</v>
+        <v>1222</v>
       </c>
       <c r="B48" s="1" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -10824,12 +12018,12 @@
         <v>Salwa</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1110</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>602</v>
+        <v>715</v>
       </c>
       <c r="B49" s="1" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -10840,12 +12034,12 @@
         <v>Abha</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>603</v>
+        <v>716</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>604</v>
+        <v>717</v>
       </c>
       <c r="B50" s="1" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -10856,12 +12050,12 @@
         <v>Abqaiq</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>605</v>
+        <v>718</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>606</v>
+        <v>719</v>
       </c>
       <c r="B51" s="1" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -10872,12 +12066,12 @@
         <v>Al_Bahah</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>608</v>
+        <v>721</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>609</v>
+        <v>722</v>
       </c>
       <c r="B52" s="1" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -10888,12 +12082,12 @@
         <v>Al_Faruq</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>611</v>
+        <v>724</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>612</v>
+        <v>725</v>
       </c>
       <c r="B53" s="1" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -10904,12 +12098,12 @@
         <v>Al_Hufuf</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>614</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>615</v>
+        <v>728</v>
       </c>
       <c r="B54" s="1" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -10920,12 +12114,12 @@
         <v>Al_Qatif</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>617</v>
+        <v>730</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>618</v>
+        <v>731</v>
       </c>
       <c r="B55" s="1" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -10936,12 +12130,12 @@
         <v>Al_Yamamah</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>620</v>
+        <v>733</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>621</v>
+        <v>734</v>
       </c>
       <c r="B56" s="1" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -10952,12 +12146,12 @@
         <v>At_Tuwal</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1111</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>624</v>
+        <v>737</v>
       </c>
       <c r="B57" s="1" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -10968,12 +12162,12 @@
         <v>Buraidah</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>625</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>626</v>
+        <v>739</v>
       </c>
       <c r="B58" s="1" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -10984,12 +12178,12 @@
         <v>Dammam</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>627</v>
+        <v>740</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>628</v>
+        <v>741</v>
       </c>
       <c r="B59" s="1" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -11000,12 +12194,12 @@
         <v>Dhahran</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>629</v>
+        <v>742</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>630</v>
+        <v>743</v>
       </c>
       <c r="B60" s="1" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -11016,12 +12210,12 @@
         <v>Hayil</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>631</v>
+        <v>744</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="B61" s="1" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -11032,12 +12226,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>632</v>
+        <v>745</v>
       </c>
       <c r="B62" s="1" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -11048,12 +12242,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>634</v>
+        <v>747</v>
       </c>
       <c r="B63" s="1" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -11064,12 +12258,12 @@
         <v>Jeddah</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>635</v>
+        <v>748</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>636</v>
+        <v>749</v>
       </c>
       <c r="B64" s="1" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -11080,12 +12274,12 @@
         <v>Jizan</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>637</v>
+        <v>750</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>638</v>
+        <v>751</v>
       </c>
       <c r="B65" s="1" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -11096,12 +12290,12 @@
         <v>Jubail</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>639</v>
+        <v>752</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>640</v>
+        <v>753</v>
       </c>
       <c r="B66" s="1" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -11112,12 +12306,12 @@
         <v>Khamis_Mushait</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>642</v>
+        <v>755</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>643</v>
+        <v>756</v>
       </c>
       <c r="B67" s="1" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -11128,12 +12322,12 @@
         <v>Khobar</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>644</v>
+        <v>757</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>645</v>
+        <v>758</v>
       </c>
       <c r="B68" s="1" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -11144,12 +12338,12 @@
         <v>Khulays</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>646</v>
+        <v>759</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>647</v>
+        <v>760</v>
       </c>
       <c r="B69" s="1" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -11160,12 +12354,12 @@
         <v>Linah</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>648</v>
+        <v>761</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>649</v>
+        <v>762</v>
       </c>
       <c r="B70" s="1" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -11176,12 +12370,12 @@
         <v>Madinat_Yanbu__as_Sina_iyah</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1112</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>652</v>
+        <v>765</v>
       </c>
       <c r="B71" s="1" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -11192,12 +12386,12 @@
         <v>Mecca</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>653</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>654</v>
+        <v>767</v>
       </c>
       <c r="B72" s="1" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -11208,12 +12402,12 @@
         <v>Medina</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>655</v>
+        <v>768</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>656</v>
+        <v>769</v>
       </c>
       <c r="B73" s="1" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -11224,12 +12418,12 @@
         <v>Mina</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>657</v>
+        <v>770</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>658</v>
+        <v>771</v>
       </c>
       <c r="B74" s="1" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -11240,12 +12434,12 @@
         <v>Najran</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>659</v>
+        <v>772</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>660</v>
+        <v>773</v>
       </c>
       <c r="B75" s="1" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -11256,12 +12450,12 @@
         <v>Rabigh</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>661</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>662</v>
+        <v>775</v>
       </c>
       <c r="B76" s="1" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -11272,12 +12466,12 @@
         <v>Rahimah</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>663</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>664</v>
+        <v>777</v>
       </c>
       <c r="B77" s="1" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -11288,12 +12482,12 @@
         <v>Rahman</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>665</v>
+        <v>778</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>666</v>
+        <v>779</v>
       </c>
       <c r="B78" s="1" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -11304,12 +12498,12 @@
         <v>Ramdah</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>667</v>
+        <v>780</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>668</v>
+        <v>781</v>
       </c>
       <c r="B79" s="1" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -11320,12 +12514,12 @@
         <v>Ras_Tanura</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>670</v>
+        <v>783</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>671</v>
+        <v>784</v>
       </c>
       <c r="B80" s="1" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -11336,12 +12530,12 @@
         <v>Riyadh</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>672</v>
+        <v>785</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>673</v>
+        <v>786</v>
       </c>
       <c r="B81" s="1" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -11352,12 +12546,12 @@
         <v>Sabya</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>674</v>
+        <v>787</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>675</v>
+        <v>788</v>
       </c>
       <c r="B82" s="1" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -11368,12 +12562,12 @@
         <v>Safwa</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>676</v>
+        <v>789</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>677</v>
+        <v>790</v>
       </c>
       <c r="B83" s="1" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -11384,12 +12578,12 @@
         <v>Sakaka</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>678</v>
+        <v>791</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>679</v>
+        <v>792</v>
       </c>
       <c r="B84" s="1" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -11400,12 +12594,12 @@
         <v>Sambah</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>680</v>
+        <v>793</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>681</v>
+        <v>794</v>
       </c>
       <c r="B85" s="1" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -11416,12 +12610,12 @@
         <v>Sayhat</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>682</v>
+        <v>795</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>683</v>
+        <v>796</v>
       </c>
       <c r="B86" s="1" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -11432,12 +12626,12 @@
         <v>Tabuk</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>684</v>
+        <v>797</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>685</v>
+        <v>798</v>
       </c>
       <c r="B87" s="1" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -11448,12 +12642,12 @@
         <v>Yanbu__al_Bahr</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1113</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>512</v>
+        <v>625</v>
       </c>
       <c r="B88" s="1" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -11464,12 +12658,12 @@
         <v>Abu_Hammad</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>514</v>
+        <v>627</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>515</v>
+        <v>628</v>
       </c>
       <c r="B89" s="1" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -11480,12 +12674,12 @@
         <v>Al_Mahallah_al_Kubra</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1114</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>518</v>
+        <v>631</v>
       </c>
       <c r="B90" s="1" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -11496,12 +12690,12 @@
         <v>Al_Mansurah</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>520</v>
+        <v>633</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>521</v>
+        <v>634</v>
       </c>
       <c r="B91" s="1" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -11512,12 +12706,12 @@
         <v>Al_Marj</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>523</v>
+        <v>636</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>524</v>
+        <v>637</v>
       </c>
       <c r="B92" s="1" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -11528,12 +12722,12 @@
         <v>Alexandria</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>525</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>526</v>
+        <v>639</v>
       </c>
       <c r="B93" s="1" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -11544,12 +12738,12 @@
         <v>Almazah</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>527</v>
+        <v>640</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>528</v>
+        <v>641</v>
       </c>
       <c r="B94" s="1" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -11560,12 +12754,12 @@
         <v>Ar_Rawdah</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>530</v>
+        <v>643</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>531</v>
+        <v>644</v>
       </c>
       <c r="B95" s="1" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -11576,12 +12770,12 @@
         <v>Assiut</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>532</v>
+        <v>645</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>533</v>
+        <v>646</v>
       </c>
       <c r="B96" s="1" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -11592,12 +12786,12 @@
         <v>Az_Zamalik</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>535</v>
+        <v>648</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>536</v>
+        <v>649</v>
       </c>
       <c r="B97" s="1" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -11608,12 +12802,12 @@
         <v>Badr</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>537</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>538</v>
+        <v>651</v>
       </c>
       <c r="B98" s="1" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -11624,12 +12818,12 @@
         <v>Banha</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>539</v>
+        <v>652</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>540</v>
+        <v>653</v>
       </c>
       <c r="B99" s="1" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -11640,12 +12834,12 @@
         <v>Bani_Suwayf</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>542</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>543</v>
+        <v>656</v>
       </c>
       <c r="B100" s="1" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -11656,12 +12850,12 @@
         <v>Cairo</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>544</v>
+        <v>657</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>545</v>
+        <v>658</v>
       </c>
       <c r="B101" s="1" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -11672,12 +12866,12 @@
         <v>Damietta</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>546</v>
+        <v>659</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>547</v>
+        <v>660</v>
       </c>
       <c r="B102" s="1" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -11688,12 +12882,12 @@
         <v>Faraskur</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>548</v>
+        <v>661</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>549</v>
+        <v>662</v>
       </c>
       <c r="B103" s="1" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -11704,12 +12898,12 @@
         <v>Flaminj</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>550</v>
+        <v>663</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>551</v>
+        <v>664</v>
       </c>
       <c r="B104" s="1" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -11720,12 +12914,12 @@
         <v>Giza</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>552</v>
+        <v>665</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="B105" s="1" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -11736,12 +12930,12 @@
         <v>Heliopolis</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>554</v>
+        <v>667</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>555</v>
+        <v>668</v>
       </c>
       <c r="B106" s="1" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -11752,12 +12946,12 @@
         <v>Helwan</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>556</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>557</v>
+        <v>670</v>
       </c>
       <c r="B107" s="1" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -11768,12 +12962,12 @@
         <v>Hurghada</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>558</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>559</v>
+        <v>672</v>
       </c>
       <c r="B108" s="1" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -11784,12 +12978,12 @@
         <v>Ismailia</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>560</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>561</v>
+        <v>674</v>
       </c>
       <c r="B109" s="1" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -11800,12 +12994,12 @@
         <v>Kafr_ash_Shaykh</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1115</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>564</v>
+        <v>677</v>
       </c>
       <c r="B110" s="1" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -11816,12 +13010,12 @@
         <v>Luxor</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>565</v>
+        <v>678</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>566</v>
+        <v>679</v>
       </c>
       <c r="B111" s="1" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -11832,12 +13026,12 @@
         <v>Madinat_an_Nasr</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>566</v>
+        <v>679</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
       <c r="B112" s="1" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -11848,12 +13042,12 @@
         <v>Madinat_as_Sadis_min_Uktubar</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>569</v>
+        <v>682</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>572</v>
+        <v>685</v>
       </c>
       <c r="B113" s="1" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -11864,12 +13058,12 @@
         <v>Minya</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>573</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>574</v>
+        <v>687</v>
       </c>
       <c r="B114" s="1" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -11880,12 +13074,12 @@
         <v>Nasr</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>575</v>
+        <v>688</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>576</v>
+        <v>689</v>
       </c>
       <c r="B115" s="1" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -11896,12 +13090,12 @@
         <v>New_Cairo</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>578</v>
+        <v>691</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>579</v>
+        <v>692</v>
       </c>
       <c r="B116" s="1" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -11912,12 +13106,12 @@
         <v>Port_Said</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>581</v>
+        <v>694</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>582</v>
+        <v>695</v>
       </c>
       <c r="B117" s="1" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -11928,12 +13122,12 @@
         <v>Rafah</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>583</v>
+        <v>696</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>584</v>
+        <v>697</v>
       </c>
       <c r="B118" s="1" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -11944,12 +13138,12 @@
         <v>Ramsis</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>585</v>
+        <v>698</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>586</v>
+        <v>699</v>
       </c>
       <c r="B119" s="1" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -11960,12 +13154,12 @@
         <v>Sadat</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>587</v>
+        <v>700</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="B120" s="1" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -11976,12 +13170,12 @@
         <v>Shirbin</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>589</v>
+        <v>702</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>590</v>
+        <v>703</v>
       </c>
       <c r="B121" s="1" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -11992,12 +13186,12 @@
         <v>Shubra</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>591</v>
+        <v>704</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>592</v>
+        <v>705</v>
       </c>
       <c r="B122" s="1" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -12008,12 +13202,12 @@
         <v>Sohag</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>593</v>
+        <v>706</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>594</v>
+        <v>707</v>
       </c>
       <c r="B123" s="1" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -12024,12 +13218,12 @@
         <v>Suez</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>595</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>596</v>
+        <v>709</v>
       </c>
       <c r="B124" s="1" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -12040,12 +13234,12 @@
         <v>Tanta</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>597</v>
+        <v>710</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>598</v>
+        <v>711</v>
       </c>
       <c r="B125" s="1" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -12056,12 +13250,12 @@
         <v>Toukh</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>599</v>
+        <v>712</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>600</v>
+        <v>713</v>
       </c>
       <c r="B126" s="1" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -12072,12 +13266,12 @@
         <v>Zagazig</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>601</v>
+        <v>714</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>688</v>
+        <v>801</v>
       </c>
       <c r="B127" s="1" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -12088,12 +13282,12 @@
         <v>Abu_Dhabi</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1116</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>691</v>
+        <v>804</v>
       </c>
       <c r="B128" s="1" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -12104,12 +13298,12 @@
         <v>Al_Ain</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>693</v>
+        <v>806</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>694</v>
+        <v>807</v>
       </c>
       <c r="B129" s="1" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -12120,12 +13314,12 @@
         <v>Al_Khan</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>696</v>
+        <v>809</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>697</v>
+        <v>810</v>
       </c>
       <c r="B130" s="1" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -12136,12 +13330,12 @@
         <v>Ar_Ruways</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>699</v>
+        <v>812</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>700</v>
+        <v>813</v>
       </c>
       <c r="B131" s="1" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -12152,12 +13346,12 @@
         <v>As_Satwah</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>702</v>
+        <v>815</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>703</v>
+        <v>816</v>
       </c>
       <c r="B132" s="1" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -12168,12 +13362,12 @@
         <v>Dayrah</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>704</v>
+        <v>817</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>705</v>
+        <v>818</v>
       </c>
       <c r="B133" s="1" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -12184,12 +13378,12 @@
         <v>Dubai</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>706</v>
+        <v>819</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>707</v>
+        <v>820</v>
       </c>
       <c r="B134" s="1" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -12200,12 +13394,12 @@
         <v>Fujairah</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>708</v>
+        <v>821</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>709</v>
+        <v>822</v>
       </c>
       <c r="B135" s="1" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -12216,12 +13410,12 @@
         <v>Ras_al_Khaimah</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>711</v>
+        <v>824</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>712</v>
+        <v>825</v>
       </c>
       <c r="B136" s="1" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -12232,12 +13426,12 @@
         <v>Sharjah</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>713</v>
+        <v>826</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1117</v>
+        <v>1230</v>
       </c>
       <c r="B137" s="1" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -12248,12 +13442,12 @@
         <v>Al Budayyi`</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1118</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1119</v>
+        <v>1232</v>
       </c>
       <c r="B138" s="1" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -12264,12 +13458,12 @@
         <v>Al Hadd</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1120</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1121</v>
+        <v>1234</v>
       </c>
       <c r="B139" s="1" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -12280,12 +13474,12 @@
         <v>Al Hamalah</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1122</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1123</v>
+        <v>1236</v>
       </c>
       <c r="B140" s="1" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -12296,12 +13490,12 @@
         <v>Al Janabiyah</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1124</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1125</v>
+        <v>1238</v>
       </c>
       <c r="B141" s="1" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -12312,12 +13506,12 @@
         <v>Al Markh</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1126</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1127</v>
+        <v>1240</v>
       </c>
       <c r="B142" s="1" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -12328,12 +13522,12 @@
         <v>Al Muharraq</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1128</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1129</v>
+        <v>1242</v>
       </c>
       <c r="B143" s="1" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -12344,12 +13538,12 @@
         <v>Bani Jamrah</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1130</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1131</v>
+        <v>1244</v>
       </c>
       <c r="B144" s="1" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -12360,12 +13554,12 @@
         <v>Barbar</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1132</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1133</v>
+        <v>1246</v>
       </c>
       <c r="B145" s="1" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -12376,12 +13570,12 @@
         <v>Jurdab</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1134</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1135</v>
+        <v>1248</v>
       </c>
       <c r="B146" s="1" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -12392,12 +13586,12 @@
         <v>Madinat `Isa</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1136</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1137</v>
+        <v>1250</v>
       </c>
       <c r="B147" s="1" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -12408,12 +13602,12 @@
         <v>Madinat Hamad</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1138</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1139</v>
+        <v>1252</v>
       </c>
       <c r="B148" s="1" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -12424,12 +13618,12 @@
         <v>Manama</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1140</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1141</v>
+        <v>1254</v>
       </c>
       <c r="B149" s="1" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -12440,12 +13634,12 @@
         <v>Oil City</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1142</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1143</v>
+        <v>1256</v>
       </c>
       <c r="B150" s="1" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -12456,12 +13650,12 @@
         <v>Sanabis</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1144</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1145</v>
+        <v>1258</v>
       </c>
       <c r="B151" s="1" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -12472,12 +13666,12 @@
         <v>Sanad</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1146</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1147</v>
+        <v>1260</v>
       </c>
       <c r="B152" s="1" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -12488,12 +13682,12 @@
         <v>Sitrah</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1148</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1149</v>
+        <v>1262</v>
       </c>
       <c r="B153" s="1" t="str">
         <f aca="false">TRIM(A153)</f>
@@ -12504,7 +13698,7 @@
         <v>Tubli</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1150</v>
+        <v>1263</v>
       </c>
     </row>
   </sheetData>

--- a/translate.xlsx
+++ b/translate.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="1268">
   <si>
     <t xml:space="preserve">Page</t>
   </si>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">Edit</t>
   </si>
   <si>
-    <t xml:space="preserve">يعدل</t>
+    <t xml:space="preserve">تغيير</t>
   </si>
   <si>
     <t xml:space="preserve">myarea_size </t>
@@ -400,7 +400,7 @@
     <t xml:space="preserve">Area Size</t>
   </si>
   <si>
-    <t xml:space="preserve">حجم المنطقة</t>
+    <t xml:space="preserve">المساحة بالمتر</t>
   </si>
   <si>
     <t xml:space="preserve">update_size </t>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Update Size</t>
   </si>
   <si>
-    <t xml:space="preserve">حجم التحديث</t>
+    <t xml:space="preserve">تحديث المساحه</t>
   </si>
   <si>
     <t xml:space="preserve">order_histroy </t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">Order History </t>
   </si>
   <si>
-    <t xml:space="preserve">تاريخ الطلب</t>
+    <t xml:space="preserve">الطلبات السابقه</t>
   </si>
   <si>
     <t xml:space="preserve">aboutus </t>
@@ -472,7 +472,7 @@
     <t xml:space="preserve">Min Size is 100 meter </t>
   </si>
   <si>
-    <t xml:space="preserve">الحد الأدنى للحجم 100 متر</t>
+    <t xml:space="preserve">الحد الأدنى للمساحه 100 متر</t>
   </si>
   <si>
     <t xml:space="preserve">ensure_internet_is_working </t>
@@ -496,7 +496,7 @@
     <t xml:space="preserve">not_show_again </t>
   </si>
   <si>
-    <t xml:space="preserve">Dont show Again</t>
+    <t xml:space="preserve">Do not show Again</t>
   </si>
   <si>
     <t xml:space="preserve">لا تظهر مرة أخرى</t>
@@ -520,7 +520,7 @@
     <t xml:space="preserve">Add to Order</t>
   </si>
   <si>
-    <t xml:space="preserve">اضافة للأمر</t>
+    <t xml:space="preserve">اضافة للطلب</t>
   </si>
   <si>
     <t xml:space="preserve">item_removed </t>
@@ -547,7 +547,7 @@
     <t xml:space="preserve">Sorry</t>
   </si>
   <si>
-    <t xml:space="preserve">آسف</t>
+    <t xml:space="preserve">نآسف</t>
   </si>
   <si>
     <t xml:space="preserve">item_added </t>
@@ -562,10 +562,10 @@
     <t xml:space="preserve">please_try_again </t>
   </si>
   <si>
-    <t xml:space="preserve">Please tray again later</t>
-  </si>
-  <si>
-    <t xml:space="preserve">من فضلك صينية مرة أخرى في وقت لاحق</t>
+    <t xml:space="preserve">Please try again later</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> يرجى المحاولة لاحقًا</t>
   </si>
   <si>
     <t xml:space="preserve">list_not_updated </t>
@@ -592,7 +592,7 @@
     <t xml:space="preserve">Renter new Password</t>
   </si>
   <si>
-    <t xml:space="preserve">استأجر كلمة مرور جديدة</t>
+    <t xml:space="preserve">إعد إدخال كلمة المرور جديدة</t>
   </si>
   <si>
     <t xml:space="preserve">reuest_no </t>
@@ -628,7 +628,7 @@
     <t xml:space="preserve">Order List</t>
   </si>
   <si>
-    <t xml:space="preserve">لائحة الطلبات</t>
+    <t xml:space="preserve">قائمة الطلبات</t>
   </si>
   <si>
     <t xml:space="preserve">request_summary </t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">Enter Promo Code</t>
   </si>
   <si>
-    <t xml:space="preserve">إدخال الرمز الترويجي</t>
+    <t xml:space="preserve">إدخال رقم الكوبون</t>
   </si>
   <si>
     <t xml:space="preserve">Code_check </t>
@@ -664,7 +664,7 @@
     <t xml:space="preserve">Check Code</t>
   </si>
   <si>
-    <t xml:space="preserve">التحقق من الشفرة</t>
+    <t xml:space="preserve">التحقق من الكوبون</t>
   </si>
   <si>
     <t xml:space="preserve">Submit </t>
@@ -673,7 +673,7 @@
     <t xml:space="preserve">Submit</t>
   </si>
   <si>
-    <t xml:space="preserve">يقدم</t>
+    <t xml:space="preserve">إتمام الطلب</t>
   </si>
   <si>
     <t xml:space="preserve">request_success</t>
@@ -689,6 +689,18 @@
   </si>
   <si>
     <t xml:space="preserve">CONGRATULATION..! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شكرا....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myarea_size_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">below prices based on Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الاسعار المدونه طبقا لمساحة </t>
   </si>
   <si>
     <t xml:space="preserve">Afghan</t>
@@ -3824,7 +3836,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3851,6 +3863,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3895,7 +3912,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3910,6 +3927,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3995,15 +4016,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A60" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E66" activeCellId="0" sqref="E66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F77" activeCellId="0" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="53.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57.15"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4925,7 +4949,7 @@
       </c>
       <c r="F42" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B42)&amp;"':"&amp;"'"&amp;TRIM(D42)&amp;"',"</f>
-        <v>'edit':'يعدل',</v>
+        <v>'edit':'تغيير',</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,7 +4971,7 @@
       </c>
       <c r="F43" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B43)&amp;"':"&amp;"'"&amp;TRIM(D43)&amp;"',"</f>
-        <v>'myarea_size':'حجم المنطقة',</v>
+        <v>'myarea_size':'المساحة بالمتر',</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4969,7 +4993,7 @@
       </c>
       <c r="F44" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B44)&amp;"':"&amp;"'"&amp;TRIM(D44)&amp;"',"</f>
-        <v>'update_size':'حجم التحديث',</v>
+        <v>'update_size':'تحديث المساحه',</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,7 +5015,7 @@
       </c>
       <c r="F45" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B45)&amp;"':"&amp;"'"&amp;TRIM(D45)&amp;"',"</f>
-        <v>'order_histroy':'تاريخ الطلب',</v>
+        <v>'order_histroy':'الطلبات السابقه',</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5123,7 +5147,7 @@
       </c>
       <c r="F51" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B51)&amp;"':"&amp;"'"&amp;TRIM(D51)&amp;"',"</f>
-        <v>'less_size_100':'الحد الأدنى للحجم 100 متر',</v>
+        <v>'less_size_100':'الحد الأدنى للمساحه 100 متر',</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5185,7 +5209,7 @@
       </c>
       <c r="E54" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B54)&amp;"':"&amp;"'"&amp;TRIM(C54)&amp;"',"</f>
-        <v>'not_show_again':'Dont show Again',</v>
+        <v>'not_show_again':'Do not show Again',</v>
       </c>
       <c r="F54" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B54)&amp;"':"&amp;"'"&amp;TRIM(D54)&amp;"',"</f>
@@ -5233,7 +5257,7 @@
       </c>
       <c r="F56" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B56)&amp;"':"&amp;"'"&amp;TRIM(D56)&amp;"',"</f>
-        <v>'add_tocart':'اضافة للأمر',</v>
+        <v>'add_tocart':'اضافة للطلب',</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5299,7 +5323,7 @@
       </c>
       <c r="F59" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B59)&amp;"':"&amp;"'"&amp;TRIM(D59)&amp;"',"</f>
-        <v>'Sorry':'آسف',</v>
+        <v>'Sorry':'نآسف',</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5334,16 +5358,16 @@
       <c r="C61" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E61" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B61)&amp;"':"&amp;"'"&amp;TRIM(C61)&amp;"',"</f>
-        <v>'please_try_again':'Please tray again later',</v>
+        <v>'please_try_again':'Please try again later',</v>
       </c>
       <c r="F61" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B61)&amp;"':"&amp;"'"&amp;TRIM(D61)&amp;"',"</f>
-        <v>'please_try_again':'من فضلك صينية مرة أخرى في وقت لاحق',</v>
+        <v>'please_try_again':'يرجى المحاولة لاحقًا',</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5409,7 +5433,7 @@
       </c>
       <c r="F64" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B64)&amp;"':"&amp;"'"&amp;TRIM(D64)&amp;"',"</f>
-        <v>'reEnter_New_password':'استأجر كلمة مرور جديدة',</v>
+        <v>'reEnter_New_password':'إعد إدخال كلمة المرور جديدة',</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5497,7 +5521,7 @@
       </c>
       <c r="F68" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B68)&amp;"':"&amp;"'"&amp;TRIM(D68)&amp;"',"</f>
-        <v>'Order_list':'لائحة الطلبات',</v>
+        <v>'Order_list':'قائمة الطلبات',</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5563,7 +5587,7 @@
       </c>
       <c r="F71" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B71)&amp;"':"&amp;"'"&amp;TRIM(D71)&amp;"',"</f>
-        <v>'enter_promo_code':'إدخال الرمز الترويجي',</v>
+        <v>'enter_promo_code':'إدخال رقم الكوبون',</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5585,7 +5609,7 @@
       </c>
       <c r="F72" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B72)&amp;"':"&amp;"'"&amp;TRIM(D72)&amp;"',"</f>
-        <v>'Code_check':'التحقق من الشفرة',</v>
+        <v>'Code_check':'التحقق من الكوبون',</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5607,7 +5631,7 @@
       </c>
       <c r="F73" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B73)&amp;"':"&amp;"'"&amp;TRIM(D73)&amp;"',"</f>
-        <v>'Submit':'يقدم',</v>
+        <v>'Submit':'إتمام الطلب',</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +5656,7 @@
         <v>'request_success':'طلبك تم بنجاح وسوف يتواصل معك أحد فريق العمل',</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>159</v>
       </c>
@@ -5643,7 +5667,7 @@
         <v>221</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="E75" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B75)&amp;"':"&amp;"'"&amp;TRIM(C75)&amp;"',"</f>
@@ -5651,20 +5675,39 @@
       </c>
       <c r="F75" s="1" t="str">
         <f aca="false">"'"&amp;TRIM(B75)&amp;"':"&amp;"'"&amp;TRIM(D75)&amp;"',"</f>
-        <v>'congr':'شكرا',</v>
+        <v>'congr':'شكرا....',</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B76)&amp;"':"&amp;"'"&amp;TRIM(C76)&amp;"',"</f>
+        <v>'myarea_size_price':'below prices based on Area',</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f aca="false">"'"&amp;TRIM(B76)&amp;"':"&amp;"'"&amp;TRIM(D76)&amp;"',"</f>
+        <v>'myarea_size_price':'الاسعار المدونه طبقا لمساحة',</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B74:B1048576 B1:B22">
+  <conditionalFormatting sqref="B77:B1048576 B1:B22 B74:B75">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B1048576 B1:B32">
+  <conditionalFormatting sqref="B77:B1048576 B1:B32 B74:B75">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B1048576 B1:B36">
+  <conditionalFormatting sqref="B77:B1048576 B1:B36 B74:B75">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B74:B1048576 B1:B63">
+  <conditionalFormatting sqref="B77:B1048576 B1:B63 B74:B75">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5692,3082 +5735,3082 @@
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="1" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="1" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="1" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="1" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="1" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="1" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="1" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="1" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="1" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="1" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="1" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="D223" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="D228" s="1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="D236" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="1" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="1" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="1" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B274" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B275" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B277" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B278" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B279" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B280" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B282" s="1" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B283" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -8799,10 +8842,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C1" s="1" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -8815,10 +8858,10 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C2" s="1" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -8831,10 +8874,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C3" s="1" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -8847,10 +8890,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C4" s="1" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -8863,10 +8906,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C5" s="1" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -8879,10 +8922,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C6" s="1" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -8895,10 +8938,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="C7" s="1" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -8911,10 +8954,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C8" s="1" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -8927,10 +8970,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="C9" s="1" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -8943,10 +8986,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C10" s="1" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -8959,10 +9002,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C11" s="1" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -8975,10 +9018,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C12" s="1" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -8991,10 +9034,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C13" s="1" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -9007,10 +9050,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C14" s="1" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -9023,10 +9066,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="C15" s="1" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -9039,10 +9082,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C16" s="1" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -9055,10 +9098,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C17" s="1" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -9071,10 +9114,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="C18" s="1" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -9087,10 +9130,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="C19" s="1" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -9103,10 +9146,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="C20" s="1" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -9119,10 +9162,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="C21" s="1" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -9135,10 +9178,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C22" s="1" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -9151,10 +9194,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C23" s="1" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -9167,10 +9210,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="C24" s="1" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -9183,10 +9226,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="C25" s="1" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -9199,10 +9242,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="C26" s="1" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -9215,10 +9258,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="C27" s="1" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -9231,10 +9274,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="C28" s="1" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -9247,10 +9290,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="C29" s="1" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -9263,10 +9306,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="C30" s="1" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -9279,10 +9322,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="C31" s="1" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -9295,10 +9338,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="C32" s="1" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -9311,10 +9354,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="C33" s="1" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -9327,10 +9370,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="C34" s="1" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -9343,10 +9386,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="C35" s="1" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -9359,10 +9402,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C36" s="1" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -9375,10 +9418,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="C37" s="1" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -9391,10 +9434,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="C38" s="1" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -9407,10 +9450,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="C39" s="1" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -9423,10 +9466,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="C40" s="1" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -9439,10 +9482,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="C41" s="1" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -9455,10 +9498,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="C42" s="1" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -9471,10 +9514,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="C43" s="1" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -9487,10 +9530,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C44" s="1" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -9503,10 +9546,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C45" s="1" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -9519,10 +9562,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C46" s="1" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -9535,10 +9578,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C47" s="1" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -9551,10 +9594,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="C48" s="1" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -9567,10 +9610,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="C49" s="1" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -9583,10 +9626,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="C50" s="1" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -9599,10 +9642,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="C51" s="1" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -9615,10 +9658,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="C52" s="1" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -9631,10 +9674,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="C53" s="1" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -9647,10 +9690,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="C54" s="1" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -9663,10 +9706,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="C55" s="1" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -9679,10 +9722,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>938</v>
+        <v>942</v>
       </c>
       <c r="C56" s="1" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -9695,10 +9738,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="C57" s="1" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -9711,10 +9754,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="C58" s="1" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -9727,10 +9770,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="C59" s="1" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -9743,10 +9786,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C60" s="1" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -9759,10 +9802,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="C61" s="1" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -9775,10 +9818,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>949</v>
+        <v>953</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>950</v>
+        <v>954</v>
       </c>
       <c r="C62" s="1" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -9791,10 +9834,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="C63" s="1" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -9807,10 +9850,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>953</v>
+        <v>957</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="C64" s="1" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -9823,10 +9866,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="C65" s="1" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -9839,10 +9882,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>957</v>
+        <v>961</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="C66" s="1" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -9855,10 +9898,10 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>959</v>
+        <v>963</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="C67" s="1" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -9871,10 +9914,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="C68" s="1" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -9887,10 +9930,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>964</v>
+        <v>968</v>
       </c>
       <c r="C69" s="1" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -9903,10 +9946,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>965</v>
+        <v>969</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="C70" s="1" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -9919,10 +9962,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="C71" s="1" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -9935,10 +9978,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="C72" s="1" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -9951,10 +9994,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="C73" s="1" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -9967,10 +10010,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="C74" s="1" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -9983,10 +10026,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="C75" s="1" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -9999,10 +10042,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="C76" s="1" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -10015,10 +10058,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>980</v>
+        <v>984</v>
       </c>
       <c r="C77" s="1" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -10031,10 +10074,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>981</v>
+        <v>985</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="C78" s="1" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -10047,10 +10090,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="C79" s="1" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -10063,10 +10106,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>986</v>
+        <v>990</v>
       </c>
       <c r="C80" s="1" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -10079,10 +10122,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>987</v>
+        <v>991</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="C81" s="1" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -10095,10 +10138,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>989</v>
+        <v>993</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="C82" s="1" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -10111,10 +10154,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="C83" s="1" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -10127,10 +10170,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>994</v>
+        <v>998</v>
       </c>
       <c r="C84" s="1" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -10143,10 +10186,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="C85" s="1" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -10159,10 +10202,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="C86" s="1" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -10175,10 +10218,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="C87" s="1" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -10191,10 +10234,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="C88" s="1" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -10207,10 +10250,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="C89" s="1" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -10223,10 +10266,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1005</v>
+        <v>1009</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="C90" s="1" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -10239,10 +10282,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1008</v>
+        <v>1012</v>
       </c>
       <c r="C91" s="1" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -10255,10 +10298,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="C92" s="1" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -10271,10 +10314,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="C93" s="1" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -10287,10 +10330,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="C94" s="1" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -10303,10 +10346,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="C95" s="1" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -10319,10 +10362,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1018</v>
+        <v>1022</v>
       </c>
       <c r="C96" s="1" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -10335,10 +10378,10 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1020</v>
+        <v>1024</v>
       </c>
       <c r="C97" s="1" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -10351,10 +10394,10 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>1021</v>
+        <v>1025</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="C98" s="1" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -10367,10 +10410,10 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="C99" s="1" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -10383,10 +10426,10 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1026</v>
+        <v>1030</v>
       </c>
       <c r="C100" s="1" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -10399,10 +10442,10 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C101" s="1" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -10415,10 +10458,10 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C102" s="1" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -10431,10 +10474,10 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C103" s="1" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -10447,10 +10490,10 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C104" s="1" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -10463,10 +10506,10 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C105" s="1" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -10479,10 +10522,10 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="C106" s="1" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -10495,10 +10538,10 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1040</v>
+        <v>1044</v>
       </c>
       <c r="C107" s="1" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -10511,10 +10554,10 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1042</v>
+        <v>1046</v>
       </c>
       <c r="C108" s="1" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -10527,10 +10570,10 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="C109" s="1" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -10543,10 +10586,10 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C110" s="1" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -10559,10 +10602,10 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="C111" s="1" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -10575,10 +10618,10 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1050</v>
+        <v>1054</v>
       </c>
       <c r="C112" s="1" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -10591,10 +10634,10 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C113" s="1" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -10607,10 +10650,10 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="C114" s="1" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -10623,10 +10666,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="C115" s="1" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -10639,10 +10682,10 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="C116" s="1" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -10655,10 +10698,10 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="C117" s="1" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -10671,10 +10714,10 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="C118" s="1" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -10687,10 +10730,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1064</v>
+        <v>1068</v>
       </c>
       <c r="C119" s="1" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -10703,10 +10746,10 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="C120" s="1" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -10719,10 +10762,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1068</v>
+        <v>1072</v>
       </c>
       <c r="C121" s="1" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -10735,10 +10778,10 @@
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>1069</v>
+        <v>1073</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1070</v>
+        <v>1074</v>
       </c>
       <c r="C122" s="1" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -10751,10 +10794,10 @@
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>1071</v>
+        <v>1075</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="C123" s="1" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -10767,10 +10810,10 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="C124" s="1" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -10783,10 +10826,10 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="C125" s="1" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -10799,10 +10842,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="C126" s="1" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -10815,10 +10858,10 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="C127" s="1" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -10831,10 +10874,10 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
       <c r="C128" s="1" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -10847,10 +10890,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1083</v>
+        <v>1087</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="C129" s="1" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -10863,10 +10906,10 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1085</v>
+        <v>1089</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C130" s="1" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -10879,10 +10922,10 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="C131" s="1" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -10895,10 +10938,10 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1089</v>
+        <v>1093</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1090</v>
+        <v>1094</v>
       </c>
       <c r="C132" s="1" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -10911,10 +10954,10 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1092</v>
+        <v>1096</v>
       </c>
       <c r="C133" s="1" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -10927,10 +10970,10 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1093</v>
+        <v>1097</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1094</v>
+        <v>1098</v>
       </c>
       <c r="C134" s="1" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -10943,10 +10986,10 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="C135" s="1" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -10959,10 +11002,10 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="C136" s="1" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -10975,10 +11018,10 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="C137" s="1" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -10991,10 +11034,10 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="C138" s="1" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -11007,10 +11050,10 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="C139" s="1" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -11023,10 +11066,10 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="C140" s="1" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -11039,10 +11082,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="C141" s="1" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -11055,10 +11098,10 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="C142" s="1" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -11071,10 +11114,10 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="C143" s="1" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -11087,10 +11130,10 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="C144" s="1" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -11103,10 +11146,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="C145" s="1" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -11119,10 +11162,10 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="C146" s="1" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -11135,10 +11178,10 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="C147" s="1" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -11151,10 +11194,10 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>1122</v>
+        <v>1126</v>
       </c>
       <c r="C148" s="1" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -11167,10 +11210,10 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>1124</v>
+        <v>1128</v>
       </c>
       <c r="C149" s="1" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -11183,10 +11226,10 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1125</v>
+        <v>1129</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="C150" s="1" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -11199,10 +11242,10 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="C151" s="1" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -11215,10 +11258,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="C152" s="1" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -11255,7 +11298,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
       <c r="B1" s="1" t="str">
         <f aca="false">TRIM(A1)</f>
@@ -11266,12 +11309,12 @@
         <v>Algiers</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
       <c r="B2" s="1" t="str">
         <f aca="false">TRIM(A2)</f>
@@ -11282,12 +11325,12 @@
         <v>Annaba</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="B3" s="1" t="str">
         <f aca="false">TRIM(A3)</f>
@@ -11298,12 +11341,12 @@
         <v>Azazga</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1136</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="B4" s="1" t="str">
         <f aca="false">TRIM(A4)</f>
@@ -11314,12 +11357,12 @@
         <v>Batna City</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1138</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="B5" s="1" t="str">
         <f aca="false">TRIM(A5)</f>
@@ -11330,12 +11373,12 @@
         <v>Blida</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
       <c r="B6" s="1" t="str">
         <f aca="false">TRIM(A6)</f>
@@ -11346,12 +11389,12 @@
         <v>Bordj</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
       <c r="B7" s="1" t="str">
         <f aca="false">TRIM(A7)</f>
@@ -11362,12 +11405,12 @@
         <v>Bordj Bou Arreridj</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
       <c r="B8" s="1" t="str">
         <f aca="false">TRIM(A8)</f>
@@ -11378,12 +11421,12 @@
         <v>Bougara</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
       <c r="B9" s="1" t="str">
         <f aca="false">TRIM(A9)</f>
@@ -11394,12 +11437,12 @@
         <v>Cheraga</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
       <c r="B10" s="1" t="str">
         <f aca="false">TRIM(A10)</f>
@@ -11410,12 +11453,12 @@
         <v>Chlef</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="B11" s="1" t="str">
         <f aca="false">TRIM(A11)</f>
@@ -11426,12 +11469,12 @@
         <v>Constantine</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
       <c r="B12" s="1" t="str">
         <f aca="false">TRIM(A12)</f>
@@ -11442,12 +11485,12 @@
         <v>Djelfa</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="B13" s="1" t="str">
         <f aca="false">TRIM(A13)</f>
@@ -11458,12 +11501,12 @@
         <v>Draria</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="B14" s="1" t="str">
         <f aca="false">TRIM(A14)</f>
@@ -11474,12 +11517,12 @@
         <v>El Tarf</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
       <c r="B15" s="1" t="str">
         <f aca="false">TRIM(A15)</f>
@@ -11490,12 +11533,12 @@
         <v>Hussein Dey</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
       <c r="B16" s="1" t="str">
         <f aca="false">TRIM(A16)</f>
@@ -11506,12 +11549,12 @@
         <v>Illizi</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
       <c r="B17" s="1" t="str">
         <f aca="false">TRIM(A17)</f>
@@ -11522,12 +11565,12 @@
         <v>Jijel</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1164</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B18" s="1" t="str">
         <f aca="false">TRIM(A18)</f>
@@ -11538,12 +11581,12 @@
         <v>Kouba</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1166</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>1167</v>
+        <v>1171</v>
       </c>
       <c r="B19" s="1" t="str">
         <f aca="false">TRIM(A19)</f>
@@ -11554,12 +11597,12 @@
         <v>Laghouat</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
       <c r="B20" s="1" t="str">
         <f aca="false">TRIM(A20)</f>
@@ -11570,12 +11613,12 @@
         <v>Oran</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="B21" s="1" t="str">
         <f aca="false">TRIM(A21)</f>
@@ -11586,12 +11629,12 @@
         <v>Ouargla</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
       <c r="B22" s="1" t="str">
         <f aca="false">TRIM(A22)</f>
@@ -11602,12 +11645,12 @@
         <v>Oued Smar</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
       <c r="B23" s="1" t="str">
         <f aca="false">TRIM(A23)</f>
@@ -11618,12 +11661,12 @@
         <v>Relizane</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
       <c r="B24" s="1" t="str">
         <f aca="false">TRIM(A24)</f>
@@ -11634,12 +11677,12 @@
         <v>Rouiba</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1178</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1179</v>
+        <v>1183</v>
       </c>
       <c r="B25" s="1" t="str">
         <f aca="false">TRIM(A25)</f>
@@ -11650,12 +11693,12 @@
         <v>Saida</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1180</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1181</v>
+        <v>1185</v>
       </c>
       <c r="B26" s="1" t="str">
         <f aca="false">TRIM(A26)</f>
@@ -11666,12 +11709,12 @@
         <v>Souk Ahras</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1182</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1183</v>
+        <v>1187</v>
       </c>
       <c r="B27" s="1" t="str">
         <f aca="false">TRIM(A27)</f>
@@ -11682,12 +11725,12 @@
         <v>Tamanghasset</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1184</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1185</v>
+        <v>1189</v>
       </c>
       <c r="B28" s="1" t="str">
         <f aca="false">TRIM(A28)</f>
@@ -11698,12 +11741,12 @@
         <v>Tiaret</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1186</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1187</v>
+        <v>1191</v>
       </c>
       <c r="B29" s="1" t="str">
         <f aca="false">TRIM(A29)</f>
@@ -11714,12 +11757,12 @@
         <v>Tissemsilt</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1188</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1189</v>
+        <v>1193</v>
       </c>
       <c r="B30" s="1" t="str">
         <f aca="false">TRIM(A30)</f>
@@ -11730,12 +11773,12 @@
         <v>Tizi</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1190</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>1191</v>
+        <v>1195</v>
       </c>
       <c r="B31" s="1" t="str">
         <f aca="false">TRIM(A31)</f>
@@ -11746,12 +11789,12 @@
         <v>Tizi Ouzou</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1192</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>1193</v>
+        <v>1197</v>
       </c>
       <c r="B32" s="1" t="str">
         <f aca="false">TRIM(A32)</f>
@@ -11762,12 +11805,12 @@
         <v>Tlemcen</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>1195</v>
+        <v>1199</v>
       </c>
       <c r="B33" s="1" t="str">
         <f aca="false">TRIM(A33)</f>
@@ -11778,12 +11821,12 @@
         <v>Abraq Khaytan</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1196</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>1197</v>
+        <v>1201</v>
       </c>
       <c r="B34" s="1" t="str">
         <f aca="false">TRIM(A34)</f>
@@ -11794,12 +11837,12 @@
         <v>Ad Dasmah</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1198</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
       <c r="B35" s="1" t="str">
         <f aca="false">TRIM(A35)</f>
@@ -11810,12 +11853,12 @@
         <v>Ad Dawhah</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1199</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="B36" s="1" t="str">
         <f aca="false">TRIM(A36)</f>
@@ -11826,12 +11869,12 @@
         <v>Al Ahmadi</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1201</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>1202</v>
+        <v>1206</v>
       </c>
       <c r="B37" s="1" t="str">
         <f aca="false">TRIM(A37)</f>
@@ -11842,12 +11885,12 @@
         <v>Al Farwaniyah</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>1203</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="B38" s="1" t="str">
         <f aca="false">TRIM(A38)</f>
@@ -11858,12 +11901,12 @@
         <v>Al Shamiya</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1205</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B39" s="1" t="str">
         <f aca="false">TRIM(A39)</f>
@@ -11874,12 +11917,12 @@
         <v>Ar Rawdah</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>1206</v>
+        <v>1210</v>
       </c>
       <c r="B40" s="1" t="str">
         <f aca="false">TRIM(A40)</f>
@@ -11890,12 +11933,12 @@
         <v>As Salimiyah</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>1207</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1208</v>
+        <v>1212</v>
       </c>
       <c r="B41" s="1" t="str">
         <f aca="false">TRIM(A41)</f>
@@ -11906,12 +11949,12 @@
         <v>Ash Shu`aybah</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1209</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>1210</v>
+        <v>1214</v>
       </c>
       <c r="B42" s="1" t="str">
         <f aca="false">TRIM(A42)</f>
@@ -11922,12 +11965,12 @@
         <v>Ash Shuwaykh</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1211</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="B43" s="1" t="str">
         <f aca="false">TRIM(A43)</f>
@@ -11938,12 +11981,12 @@
         <v>Bayan</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1213</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>1214</v>
+        <v>1218</v>
       </c>
       <c r="B44" s="1" t="str">
         <f aca="false">TRIM(A44)</f>
@@ -11954,12 +11997,12 @@
         <v>Hawalli</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="B45" s="1" t="str">
         <f aca="false">TRIM(A45)</f>
@@ -11970,12 +12013,12 @@
         <v>Janub as Surrah</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="B46" s="1" t="str">
         <f aca="false">TRIM(A46)</f>
@@ -11986,12 +12029,12 @@
         <v>Kayfan</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="B47" s="1" t="str">
         <f aca="false">TRIM(A47)</f>
@@ -12002,12 +12045,12 @@
         <v>Kuwait City</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1221</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>1222</v>
+        <v>1226</v>
       </c>
       <c r="B48" s="1" t="str">
         <f aca="false">TRIM(A48)</f>
@@ -12018,12 +12061,12 @@
         <v>Salwa</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="B49" s="1" t="str">
         <f aca="false">TRIM(A49)</f>
@@ -12034,12 +12077,12 @@
         <v>Abha</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B50" s="1" t="str">
         <f aca="false">TRIM(A50)</f>
@@ -12050,12 +12093,12 @@
         <v>Abqaiq</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B51" s="1" t="str">
         <f aca="false">TRIM(A51)</f>
@@ -12066,12 +12109,12 @@
         <v>Al_Bahah</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B52" s="1" t="str">
         <f aca="false">TRIM(A52)</f>
@@ -12082,12 +12125,12 @@
         <v>Al_Faruq</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B53" s="1" t="str">
         <f aca="false">TRIM(A53)</f>
@@ -12098,12 +12141,12 @@
         <v>Al_Hufuf</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B54" s="1" t="str">
         <f aca="false">TRIM(A54)</f>
@@ -12114,12 +12157,12 @@
         <v>Al_Qatif</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="B55" s="1" t="str">
         <f aca="false">TRIM(A55)</f>
@@ -12130,12 +12173,12 @@
         <v>Al_Yamamah</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="B56" s="1" t="str">
         <f aca="false">TRIM(A56)</f>
@@ -12146,12 +12189,12 @@
         <v>At_Tuwal</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>1224</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="B57" s="1" t="str">
         <f aca="false">TRIM(A57)</f>
@@ -12162,12 +12205,12 @@
         <v>Buraidah</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="B58" s="1" t="str">
         <f aca="false">TRIM(A58)</f>
@@ -12178,12 +12221,12 @@
         <v>Dammam</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B59" s="1" t="str">
         <f aca="false">TRIM(A59)</f>
@@ -12194,12 +12237,12 @@
         <v>Dhahran</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="B60" s="1" t="str">
         <f aca="false">TRIM(A60)</f>
@@ -12210,12 +12253,12 @@
         <v>Hayil</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B61" s="1" t="str">
         <f aca="false">TRIM(A61)</f>
@@ -12226,12 +12269,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="B62" s="1" t="str">
         <f aca="false">TRIM(A62)</f>
@@ -12242,12 +12285,12 @@
         <v>Jazirah</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B63" s="1" t="str">
         <f aca="false">TRIM(A63)</f>
@@ -12258,12 +12301,12 @@
         <v>Jeddah</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B64" s="1" t="str">
         <f aca="false">TRIM(A64)</f>
@@ -12274,12 +12317,12 @@
         <v>Jizan</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B65" s="1" t="str">
         <f aca="false">TRIM(A65)</f>
@@ -12290,12 +12333,12 @@
         <v>Jubail</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B66" s="1" t="str">
         <f aca="false">TRIM(A66)</f>
@@ -12306,12 +12349,12 @@
         <v>Khamis_Mushait</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B67" s="1" t="str">
         <f aca="false">TRIM(A67)</f>
@@ -12322,12 +12365,12 @@
         <v>Khobar</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B68" s="1" t="str">
         <f aca="false">TRIM(A68)</f>
@@ -12338,12 +12381,12 @@
         <v>Khulays</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B69" s="1" t="str">
         <f aca="false">TRIM(A69)</f>
@@ -12354,12 +12397,12 @@
         <v>Linah</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B70" s="1" t="str">
         <f aca="false">TRIM(A70)</f>
@@ -12370,12 +12413,12 @@
         <v>Madinat_Yanbu__as_Sina_iyah</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B71" s="1" t="str">
         <f aca="false">TRIM(A71)</f>
@@ -12386,12 +12429,12 @@
         <v>Mecca</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B72" s="1" t="str">
         <f aca="false">TRIM(A72)</f>
@@ -12402,12 +12445,12 @@
         <v>Medina</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="B73" s="1" t="str">
         <f aca="false">TRIM(A73)</f>
@@ -12418,12 +12461,12 @@
         <v>Mina</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B74" s="1" t="str">
         <f aca="false">TRIM(A74)</f>
@@ -12434,12 +12477,12 @@
         <v>Najran</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="B75" s="1" t="str">
         <f aca="false">TRIM(A75)</f>
@@ -12450,12 +12493,12 @@
         <v>Rabigh</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B76" s="1" t="str">
         <f aca="false">TRIM(A76)</f>
@@ -12466,12 +12509,12 @@
         <v>Rahimah</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B77" s="1" t="str">
         <f aca="false">TRIM(A77)</f>
@@ -12482,12 +12525,12 @@
         <v>Rahman</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="B78" s="1" t="str">
         <f aca="false">TRIM(A78)</f>
@@ -12498,12 +12541,12 @@
         <v>Ramdah</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B79" s="1" t="str">
         <f aca="false">TRIM(A79)</f>
@@ -12514,12 +12557,12 @@
         <v>Ras_Tanura</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B80" s="1" t="str">
         <f aca="false">TRIM(A80)</f>
@@ -12530,12 +12573,12 @@
         <v>Riyadh</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B81" s="1" t="str">
         <f aca="false">TRIM(A81)</f>
@@ -12546,12 +12589,12 @@
         <v>Sabya</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B82" s="1" t="str">
         <f aca="false">TRIM(A82)</f>
@@ -12562,12 +12605,12 @@
         <v>Safwa</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B83" s="1" t="str">
         <f aca="false">TRIM(A83)</f>
@@ -12578,12 +12621,12 @@
         <v>Sakaka</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B84" s="1" t="str">
         <f aca="false">TRIM(A84)</f>
@@ -12594,12 +12637,12 @@
         <v>Sambah</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B85" s="1" t="str">
         <f aca="false">TRIM(A85)</f>
@@ -12610,12 +12653,12 @@
         <v>Sayhat</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="B86" s="1" t="str">
         <f aca="false">TRIM(A86)</f>
@@ -12626,12 +12669,12 @@
         <v>Tabuk</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B87" s="1" t="str">
         <f aca="false">TRIM(A87)</f>
@@ -12642,12 +12685,12 @@
         <v>Yanbu__al_Bahr</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B88" s="1" t="str">
         <f aca="false">TRIM(A88)</f>
@@ -12658,12 +12701,12 @@
         <v>Abu_Hammad</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B89" s="1" t="str">
         <f aca="false">TRIM(A89)</f>
@@ -12674,12 +12717,12 @@
         <v>Al_Mahallah_al_Kubra</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>1227</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B90" s="1" t="str">
         <f aca="false">TRIM(A90)</f>
@@ -12690,12 +12733,12 @@
         <v>Al_Mansurah</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B91" s="1" t="str">
         <f aca="false">TRIM(A91)</f>
@@ -12706,12 +12749,12 @@
         <v>Al_Marj</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B92" s="1" t="str">
         <f aca="false">TRIM(A92)</f>
@@ -12722,12 +12765,12 @@
         <v>Alexandria</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B93" s="1" t="str">
         <f aca="false">TRIM(A93)</f>
@@ -12738,12 +12781,12 @@
         <v>Almazah</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B94" s="1" t="str">
         <f aca="false">TRIM(A94)</f>
@@ -12754,12 +12797,12 @@
         <v>Ar_Rawdah</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B95" s="1" t="str">
         <f aca="false">TRIM(A95)</f>
@@ -12770,12 +12813,12 @@
         <v>Assiut</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B96" s="1" t="str">
         <f aca="false">TRIM(A96)</f>
@@ -12786,12 +12829,12 @@
         <v>Az_Zamalik</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B97" s="1" t="str">
         <f aca="false">TRIM(A97)</f>
@@ -12802,12 +12845,12 @@
         <v>Badr</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B98" s="1" t="str">
         <f aca="false">TRIM(A98)</f>
@@ -12818,12 +12861,12 @@
         <v>Banha</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B99" s="1" t="str">
         <f aca="false">TRIM(A99)</f>
@@ -12834,12 +12877,12 @@
         <v>Bani_Suwayf</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B100" s="1" t="str">
         <f aca="false">TRIM(A100)</f>
@@ -12850,12 +12893,12 @@
         <v>Cairo</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B101" s="1" t="str">
         <f aca="false">TRIM(A101)</f>
@@ -12866,12 +12909,12 @@
         <v>Damietta</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B102" s="1" t="str">
         <f aca="false">TRIM(A102)</f>
@@ -12882,12 +12925,12 @@
         <v>Faraskur</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B103" s="1" t="str">
         <f aca="false">TRIM(A103)</f>
@@ -12898,12 +12941,12 @@
         <v>Flaminj</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B104" s="1" t="str">
         <f aca="false">TRIM(A104)</f>
@@ -12914,12 +12957,12 @@
         <v>Giza</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B105" s="1" t="str">
         <f aca="false">TRIM(A105)</f>
@@ -12930,12 +12973,12 @@
         <v>Heliopolis</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B106" s="1" t="str">
         <f aca="false">TRIM(A106)</f>
@@ -12946,12 +12989,12 @@
         <v>Helwan</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B107" s="1" t="str">
         <f aca="false">TRIM(A107)</f>
@@ -12962,12 +13005,12 @@
         <v>Hurghada</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B108" s="1" t="str">
         <f aca="false">TRIM(A108)</f>
@@ -12978,12 +13021,12 @@
         <v>Ismailia</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B109" s="1" t="str">
         <f aca="false">TRIM(A109)</f>
@@ -12994,12 +13037,12 @@
         <v>Kafr_ash_Shaykh</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>1228</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B110" s="1" t="str">
         <f aca="false">TRIM(A110)</f>
@@ -13010,12 +13053,12 @@
         <v>Luxor</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="B111" s="1" t="str">
         <f aca="false">TRIM(A111)</f>
@@ -13026,12 +13069,12 @@
         <v>Madinat_an_Nasr</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B112" s="1" t="str">
         <f aca="false">TRIM(A112)</f>
@@ -13042,12 +13085,12 @@
         <v>Madinat_as_Sadis_min_Uktubar</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B113" s="1" t="str">
         <f aca="false">TRIM(A113)</f>
@@ -13058,12 +13101,12 @@
         <v>Minya</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="B114" s="1" t="str">
         <f aca="false">TRIM(A114)</f>
@@ -13074,12 +13117,12 @@
         <v>Nasr</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B115" s="1" t="str">
         <f aca="false">TRIM(A115)</f>
@@ -13090,12 +13133,12 @@
         <v>New_Cairo</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B116" s="1" t="str">
         <f aca="false">TRIM(A116)</f>
@@ -13106,12 +13149,12 @@
         <v>Port_Said</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="B117" s="1" t="str">
         <f aca="false">TRIM(A117)</f>
@@ -13122,12 +13165,12 @@
         <v>Rafah</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="B118" s="1" t="str">
         <f aca="false">TRIM(A118)</f>
@@ -13138,12 +13181,12 @@
         <v>Ramsis</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B119" s="1" t="str">
         <f aca="false">TRIM(A119)</f>
@@ -13154,12 +13197,12 @@
         <v>Sadat</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B120" s="1" t="str">
         <f aca="false">TRIM(A120)</f>
@@ -13170,12 +13213,12 @@
         <v>Shirbin</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="B121" s="1" t="str">
         <f aca="false">TRIM(A121)</f>
@@ -13186,12 +13229,12 @@
         <v>Shubra</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B122" s="1" t="str">
         <f aca="false">TRIM(A122)</f>
@@ -13202,12 +13245,12 @@
         <v>Sohag</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="B123" s="1" t="str">
         <f aca="false">TRIM(A123)</f>
@@ -13218,12 +13261,12 @@
         <v>Suez</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="B124" s="1" t="str">
         <f aca="false">TRIM(A124)</f>
@@ -13234,12 +13277,12 @@
         <v>Tanta</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B125" s="1" t="str">
         <f aca="false">TRIM(A125)</f>
@@ -13250,12 +13293,12 @@
         <v>Toukh</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B126" s="1" t="str">
         <f aca="false">TRIM(A126)</f>
@@ -13266,12 +13309,12 @@
         <v>Zagazig</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="B127" s="1" t="str">
         <f aca="false">TRIM(A127)</f>
@@ -13282,12 +13325,12 @@
         <v>Abu_Dhabi</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B128" s="1" t="str">
         <f aca="false">TRIM(A128)</f>
@@ -13298,12 +13341,12 @@
         <v>Al_Ain</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="B129" s="1" t="str">
         <f aca="false">TRIM(A129)</f>
@@ -13314,12 +13357,12 @@
         <v>Al_Khan</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B130" s="1" t="str">
         <f aca="false">TRIM(A130)</f>
@@ -13330,12 +13373,12 @@
         <v>Ar_Ruways</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B131" s="1" t="str">
         <f aca="false">TRIM(A131)</f>
@@ -13346,12 +13389,12 @@
         <v>As_Satwah</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B132" s="1" t="str">
         <f aca="false">TRIM(A132)</f>
@@ -13362,12 +13405,12 @@
         <v>Dayrah</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="B133" s="1" t="str">
         <f aca="false">TRIM(A133)</f>
@@ -13378,12 +13421,12 @@
         <v>Dubai</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="B134" s="1" t="str">
         <f aca="false">TRIM(A134)</f>
@@ -13394,12 +13437,12 @@
         <v>Fujairah</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="B135" s="1" t="str">
         <f aca="false">TRIM(A135)</f>
@@ -13410,12 +13453,12 @@
         <v>Ras_al_Khaimah</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B136" s="1" t="str">
         <f aca="false">TRIM(A136)</f>
@@ -13426,12 +13469,12 @@
         <v>Sharjah</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="B137" s="1" t="str">
         <f aca="false">TRIM(A137)</f>
@@ -13442,12 +13485,12 @@
         <v>Al Budayyi`</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>1231</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1232</v>
+        <v>1236</v>
       </c>
       <c r="B138" s="1" t="str">
         <f aca="false">TRIM(A138)</f>
@@ -13458,12 +13501,12 @@
         <v>Al Hadd</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>1233</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1234</v>
+        <v>1238</v>
       </c>
       <c r="B139" s="1" t="str">
         <f aca="false">TRIM(A139)</f>
@@ -13474,12 +13517,12 @@
         <v>Al Hamalah</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>1235</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1236</v>
+        <v>1240</v>
       </c>
       <c r="B140" s="1" t="str">
         <f aca="false">TRIM(A140)</f>
@@ -13490,12 +13533,12 @@
         <v>Al Janabiyah</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>1237</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="B141" s="1" t="str">
         <f aca="false">TRIM(A141)</f>
@@ -13506,12 +13549,12 @@
         <v>Al Markh</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>1239</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1240</v>
+        <v>1244</v>
       </c>
       <c r="B142" s="1" t="str">
         <f aca="false">TRIM(A142)</f>
@@ -13522,12 +13565,12 @@
         <v>Al Muharraq</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="B143" s="1" t="str">
         <f aca="false">TRIM(A143)</f>
@@ -13538,12 +13581,12 @@
         <v>Bani Jamrah</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1244</v>
+        <v>1248</v>
       </c>
       <c r="B144" s="1" t="str">
         <f aca="false">TRIM(A144)</f>
@@ -13554,12 +13597,12 @@
         <v>Barbar</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>1245</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1246</v>
+        <v>1250</v>
       </c>
       <c r="B145" s="1" t="str">
         <f aca="false">TRIM(A145)</f>
@@ -13570,12 +13613,12 @@
         <v>Jurdab</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>1247</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1248</v>
+        <v>1252</v>
       </c>
       <c r="B146" s="1" t="str">
         <f aca="false">TRIM(A146)</f>
@@ -13586,12 +13629,12 @@
         <v>Madinat `Isa</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>1249</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="B147" s="1" t="str">
         <f aca="false">TRIM(A147)</f>
@@ -13602,12 +13645,12 @@
         <v>Madinat Hamad</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>1251</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1252</v>
+        <v>1256</v>
       </c>
       <c r="B148" s="1" t="str">
         <f aca="false">TRIM(A148)</f>
@@ -13618,12 +13661,12 @@
         <v>Manama</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>1253</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1254</v>
+        <v>1258</v>
       </c>
       <c r="B149" s="1" t="str">
         <f aca="false">TRIM(A149)</f>
@@ -13634,12 +13677,12 @@
         <v>Oil City</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>1255</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1256</v>
+        <v>1260</v>
       </c>
       <c r="B150" s="1" t="str">
         <f aca="false">TRIM(A150)</f>
@@ -13650,12 +13693,12 @@
         <v>Sanabis</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>1257</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1258</v>
+        <v>1262</v>
       </c>
       <c r="B151" s="1" t="str">
         <f aca="false">TRIM(A151)</f>
@@ -13666,12 +13709,12 @@
         <v>Sanad</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>1259</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1260</v>
+        <v>1264</v>
       </c>
       <c r="B152" s="1" t="str">
         <f aca="false">TRIM(A152)</f>
@@ -13682,12 +13725,12 @@
         <v>Sitrah</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1262</v>
+        <v>1266</v>
       </c>
       <c r="B153" s="1" t="str">
         <f aca="false">TRIM(A153)</f>
@@ -13698,7 +13741,7 @@
         <v>Tubli</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>1263</v>
+        <v>1267</v>
       </c>
     </row>
   </sheetData>
